--- a/ExportData/Test 3 User 3.xlsx
+++ b/ExportData/Test 3 User 3.xlsx
@@ -532,7 +532,7 @@
         <v>44228</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>15.18</v>
+        <v>25.48</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0</v>
@@ -564,7 +564,7 @@
         <v>44228.01041666666</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>15.21</v>
+        <v>25.51</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0.02</v>
@@ -596,7 +596,7 @@
         <v>44228.02083333334</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>15.23</v>
+        <v>25.53</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>0.02</v>
@@ -628,7 +628,7 @@
         <v>44228.03125</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>15.26</v>
+        <v>25.56</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.02</v>
@@ -660,7 +660,7 @@
         <v>44228.04166666666</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>15.28</v>
+        <v>25.58</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>0.02</v>
@@ -692,7 +692,7 @@
         <v>44228.05208333334</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>15.31</v>
+        <v>25.61</v>
       </c>
       <c r="D9" s="5" t="n">
         <v>0.02</v>
@@ -724,7 +724,7 @@
         <v>44228.0625</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>15.33</v>
+        <v>25.63</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.02</v>
@@ -756,7 +756,7 @@
         <v>44228.07291666666</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>15.36</v>
+        <v>25.66</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0.02</v>
@@ -788,7 +788,7 @@
         <v>44228.08333333334</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>15.38</v>
+        <v>25.68</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>0.02</v>
@@ -820,7 +820,7 @@
         <v>44228.09375</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>15.41</v>
+        <v>25.71</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.02</v>
@@ -852,7 +852,7 @@
         <v>44228.10416666666</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>15.43</v>
+        <v>25.73</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>0.02</v>
@@ -884,7 +884,7 @@
         <v>44228.11458333334</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>15.46</v>
+        <v>25.76</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>0.02</v>
@@ -916,7 +916,7 @@
         <v>44228.125</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>15.48</v>
+        <v>25.78</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.02</v>
@@ -948,7 +948,7 @@
         <v>44228.13541666666</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>15.51</v>
+        <v>25.81</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>0.02</v>
@@ -980,7 +980,7 @@
         <v>44228.14583333334</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>15.53</v>
+        <v>25.83</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>0.02</v>
@@ -1012,7 +1012,7 @@
         <v>44228.15625</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>15.56</v>
+        <v>25.86</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>0.02</v>
@@ -1044,7 +1044,7 @@
         <v>44228.16666666666</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>15.58</v>
+        <v>25.88</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>0.02</v>
@@ -1076,7 +1076,7 @@
         <v>44228.17708333334</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>15.61</v>
+        <v>25.91</v>
       </c>
       <c r="D21" s="5" t="n">
         <v>0.02</v>
@@ -1108,7 +1108,7 @@
         <v>44228.1875</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>15.63</v>
+        <v>25.93</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>0.02</v>
@@ -1140,7 +1140,7 @@
         <v>44228.19791666666</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>15.66</v>
+        <v>25.96</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>0.02</v>
@@ -1172,7 +1172,7 @@
         <v>44228.20833333334</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>15.68</v>
+        <v>25.98</v>
       </c>
       <c r="D24" s="5" t="n">
         <v>0.02</v>
@@ -1204,7 +1204,7 @@
         <v>44228.21875</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>15.76</v>
+        <v>26.06</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -1236,7 +1236,7 @@
         <v>44228.22916666666</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>15.83</v>
+        <v>26.13</v>
       </c>
       <c r="D26" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -1268,7 +1268,7 @@
         <v>44228.23958333334</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>15.91</v>
+        <v>26.21</v>
       </c>
       <c r="D27" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -1300,7 +1300,7 @@
         <v>44228.25</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>16.13</v>
+        <v>26.43</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>0.22</v>
@@ -1332,7 +1332,7 @@
         <v>44228.26041666666</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>16.43</v>
+        <v>26.73</v>
       </c>
       <c r="D29" s="5" t="n">
         <v>0.29</v>
@@ -1364,7 +1364,7 @@
         <v>44228.27083333334</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>16.73</v>
+        <v>27.03</v>
       </c>
       <c r="D30" s="5" t="n">
         <v>0.29</v>
@@ -1396,7 +1396,7 @@
         <v>44228.28125</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>17.03</v>
+        <v>27.33</v>
       </c>
       <c r="D31" s="5" t="n">
         <v>0.29</v>
@@ -1428,7 +1428,7 @@
         <v>44228.29166666666</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>17.33</v>
+        <v>27.63</v>
       </c>
       <c r="D32" s="5" t="n">
         <v>0.29</v>
@@ -1460,7 +1460,7 @@
         <v>44228.30208333334</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>17.63</v>
+        <v>27.93</v>
       </c>
       <c r="D33" s="5" t="n">
         <v>0.29</v>
@@ -1492,7 +1492,7 @@
         <v>44228.3125</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>17.93</v>
+        <v>28.23</v>
       </c>
       <c r="D34" s="5" t="n">
         <v>0.29</v>
@@ -1524,7 +1524,7 @@
         <v>44228.32291666666</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>18.23</v>
+        <v>28.53</v>
       </c>
       <c r="D35" s="5" t="n">
         <v>0.29</v>
@@ -1556,7 +1556,7 @@
         <v>44228.33333333334</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>18.53</v>
+        <v>28.83</v>
       </c>
       <c r="D36" s="5" t="n">
         <v>0.29</v>
@@ -1588,7 +1588,7 @@
         <v>44228.34375</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>18.53</v>
+        <v>28.83</v>
       </c>
       <c r="D37" s="5" t="n">
         <v>0</v>
@@ -1620,7 +1620,7 @@
         <v>44228.35416666666</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>18.53</v>
+        <v>28.83</v>
       </c>
       <c r="D38" s="5" t="n">
         <v>0</v>
@@ -1652,7 +1652,7 @@
         <v>44228.36458333334</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>18.53</v>
+        <v>28.83</v>
       </c>
       <c r="D39" s="5" t="n">
         <v>0</v>
@@ -1684,7 +1684,7 @@
         <v>44228.375</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>18.53</v>
+        <v>28.83</v>
       </c>
       <c r="D40" s="5" t="n">
         <v>0</v>
@@ -1716,7 +1716,7 @@
         <v>44228.38541666666</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>18.44</v>
+        <v>28.74</v>
       </c>
       <c r="D41" s="5" t="n">
         <v>-0.09</v>
@@ -1748,7 +1748,7 @@
         <v>44228.39583333334</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>18.34</v>
+        <v>28.64</v>
       </c>
       <c r="D42" s="5" t="n">
         <v>-0.09</v>
@@ -1780,7 +1780,7 @@
         <v>44228.40625</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>18.25</v>
+        <v>28.55</v>
       </c>
       <c r="D43" s="5" t="n">
         <v>-0.09</v>
@@ -1812,7 +1812,7 @@
         <v>44228.41666666666</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>18.15</v>
+        <v>28.45</v>
       </c>
       <c r="D44" s="5" t="n">
         <v>-0.09</v>
@@ -1844,7 +1844,7 @@
         <v>44228.42708333334</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>17.87</v>
+        <v>28.17</v>
       </c>
       <c r="D45" s="5" t="n">
         <v>-0.28</v>
@@ -1876,7 +1876,7 @@
         <v>44228.4375</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>17.58</v>
+        <v>27.88</v>
       </c>
       <c r="D46" s="5" t="n">
         <v>-0.28</v>
@@ -1908,7 +1908,7 @@
         <v>44228.44791666666</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>17.3</v>
+        <v>27.6</v>
       </c>
       <c r="D47" s="5" t="n">
         <v>-0.28</v>
@@ -1940,7 +1940,7 @@
         <v>44228.45833333334</v>
       </c>
       <c r="C48" s="5" t="n">
-        <v>17.01</v>
+        <v>27.31</v>
       </c>
       <c r="D48" s="5" t="n">
         <v>-0.28</v>
@@ -1972,7 +1972,7 @@
         <v>44228.46875</v>
       </c>
       <c r="C49" s="5" t="n">
-        <v>16.65</v>
+        <v>26.95</v>
       </c>
       <c r="D49" s="5" t="n">
         <v>-0.36</v>
@@ -2004,7 +2004,7 @@
         <v>44228.47916666666</v>
       </c>
       <c r="C50" s="5" t="n">
-        <v>16.17</v>
+        <v>26.47</v>
       </c>
       <c r="D50" s="5" t="n">
         <v>-0.47</v>
@@ -2036,7 +2036,7 @@
         <v>44228.48958333334</v>
       </c>
       <c r="C51" s="5" t="n">
-        <v>15.7</v>
+        <v>26</v>
       </c>
       <c r="D51" s="5" t="n">
         <v>-0.47</v>
@@ -2068,7 +2068,7 @@
         <v>44228.5</v>
       </c>
       <c r="C52" s="5" t="n">
-        <v>15.35</v>
+        <v>25.65</v>
       </c>
       <c r="D52" s="5" t="n">
         <v>-0.34</v>
@@ -2100,7 +2100,7 @@
         <v>44228.51041666666</v>
       </c>
       <c r="C53" s="5" t="n">
-        <v>15.04</v>
+        <v>25.34</v>
       </c>
       <c r="D53" s="5" t="n">
         <v>-0.3</v>
@@ -2132,7 +2132,7 @@
         <v>44228.52083333334</v>
       </c>
       <c r="C54" s="5" t="n">
-        <v>14.74</v>
+        <v>25.04</v>
       </c>
       <c r="D54" s="5" t="n">
         <v>-0.3</v>
@@ -2164,7 +2164,7 @@
         <v>44228.53125</v>
       </c>
       <c r="C55" s="5" t="n">
-        <v>14.45</v>
+        <v>24.75</v>
       </c>
       <c r="D55" s="5" t="n">
         <v>-0.29</v>
@@ -2196,7 +2196,7 @@
         <v>44228.54166666666</v>
       </c>
       <c r="C56" s="5" t="n">
-        <v>14.15</v>
+        <v>24.46</v>
       </c>
       <c r="D56" s="5" t="n">
         <v>-0.29</v>
@@ -2228,7 +2228,7 @@
         <v>44228.55208333334</v>
       </c>
       <c r="C57" s="5" t="n">
-        <v>13.8</v>
+        <v>24.11</v>
       </c>
       <c r="D57" s="5" t="n">
         <v>-0.34</v>
@@ -2260,7 +2260,7 @@
         <v>44228.5625</v>
       </c>
       <c r="C58" s="5" t="n">
-        <v>13.45</v>
+        <v>23.76</v>
       </c>
       <c r="D58" s="5" t="n">
         <v>-0.34</v>
@@ -2292,7 +2292,7 @@
         <v>44228.57291666666</v>
       </c>
       <c r="C59" s="5" t="n">
-        <v>13.1</v>
+        <v>23.41</v>
       </c>
       <c r="D59" s="5" t="n">
         <v>-0.34</v>
@@ -2324,10 +2324,10 @@
         <v>44228.58333333334</v>
       </c>
       <c r="C60" s="5" t="n">
-        <v>12.88</v>
+        <v>23.15</v>
       </c>
       <c r="D60" s="5" t="n">
-        <v>-0.21</v>
+        <v>-0.25</v>
       </c>
       <c r="E60" s="6" t="n">
         <v>9.867000000000001</v>
@@ -2356,10 +2356,10 @@
         <v>44228.59375</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>12.74</v>
+        <v>22.97</v>
       </c>
       <c r="D61" s="5" t="n">
-        <v>-0.13</v>
+        <v>-0.17</v>
       </c>
       <c r="E61" s="6" t="n">
         <v>6</v>
@@ -2388,10 +2388,10 @@
         <v>44228.60416666666</v>
       </c>
       <c r="C62" s="5" t="n">
-        <v>12.6</v>
+        <v>22.79</v>
       </c>
       <c r="D62" s="5" t="n">
-        <v>-0.13</v>
+        <v>-0.17</v>
       </c>
       <c r="E62" s="6" t="n">
         <v>6</v>
@@ -2420,10 +2420,10 @@
         <v>44228.61458333334</v>
       </c>
       <c r="C63" s="5" t="n">
-        <v>12.46</v>
+        <v>22.61</v>
       </c>
       <c r="D63" s="5" t="n">
-        <v>-0.13</v>
+        <v>-0.17</v>
       </c>
       <c r="E63" s="6" t="n">
         <v>6</v>
@@ -2452,10 +2452,10 @@
         <v>44228.625</v>
       </c>
       <c r="C64" s="5" t="n">
-        <v>12.32</v>
+        <v>22.43</v>
       </c>
       <c r="D64" s="5" t="n">
-        <v>-0.13</v>
+        <v>-0.17</v>
       </c>
       <c r="E64" s="6" t="n">
         <v>5.867</v>
@@ -2484,10 +2484,10 @@
         <v>44228.63541666666</v>
       </c>
       <c r="C65" s="5" t="n">
-        <v>12.26</v>
+        <v>22.36</v>
       </c>
       <c r="D65" s="5" t="n">
-        <v>-0.05</v>
+        <v>-0.06</v>
       </c>
       <c r="E65" s="6" t="n">
         <v>2</v>
@@ -2516,10 +2516,10 @@
         <v>44228.64583333334</v>
       </c>
       <c r="C66" s="5" t="n">
-        <v>12.2</v>
+        <v>22.29</v>
       </c>
       <c r="D66" s="5" t="n">
-        <v>-0.05</v>
+        <v>-0.06</v>
       </c>
       <c r="E66" s="6" t="n">
         <v>2</v>
@@ -2548,10 +2548,10 @@
         <v>44228.65625</v>
       </c>
       <c r="C67" s="5" t="n">
-        <v>12.14</v>
+        <v>22.22</v>
       </c>
       <c r="D67" s="5" t="n">
-        <v>-0.05</v>
+        <v>-0.06</v>
       </c>
       <c r="E67" s="6" t="n">
         <v>2</v>
@@ -2580,10 +2580,10 @@
         <v>44228.66666666666</v>
       </c>
       <c r="C68" s="5" t="n">
-        <v>12.07</v>
+        <v>22.12</v>
       </c>
       <c r="D68" s="5" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.09</v>
       </c>
       <c r="E68" s="6" t="n">
         <v>1.933</v>
@@ -2612,7 +2612,7 @@
         <v>44228.67708333334</v>
       </c>
       <c r="C69" s="5" t="n">
-        <v>12.07</v>
+        <v>22.12</v>
       </c>
       <c r="D69" s="5" t="n">
         <v>0</v>
@@ -2644,7 +2644,7 @@
         <v>44228.6875</v>
       </c>
       <c r="C70" s="5" t="n">
-        <v>12.07</v>
+        <v>22.12</v>
       </c>
       <c r="D70" s="5" t="n">
         <v>0</v>
@@ -2676,7 +2676,7 @@
         <v>44228.69791666666</v>
       </c>
       <c r="C71" s="5" t="n">
-        <v>12.07</v>
+        <v>22.12</v>
       </c>
       <c r="D71" s="5" t="n">
         <v>0</v>
@@ -2708,7 +2708,7 @@
         <v>44228.70833333334</v>
       </c>
       <c r="C72" s="5" t="n">
-        <v>12.07</v>
+        <v>22.12</v>
       </c>
       <c r="D72" s="5" t="n">
         <v>0</v>
@@ -2740,7 +2740,7 @@
         <v>44228.71875</v>
       </c>
       <c r="C73" s="5" t="n">
-        <v>12.29</v>
+        <v>22.35</v>
       </c>
       <c r="D73" s="5" t="n">
         <v>0.22</v>
@@ -2772,7 +2772,7 @@
         <v>44228.72916666666</v>
       </c>
       <c r="C74" s="5" t="n">
-        <v>12.52</v>
+        <v>22.57</v>
       </c>
       <c r="D74" s="5" t="n">
         <v>0.22</v>
@@ -2804,7 +2804,7 @@
         <v>44228.73958333334</v>
       </c>
       <c r="C75" s="5" t="n">
-        <v>12.74</v>
+        <v>22.8</v>
       </c>
       <c r="D75" s="5" t="n">
         <v>0.22</v>
@@ -2836,7 +2836,7 @@
         <v>44228.75</v>
       </c>
       <c r="C76" s="5" t="n">
-        <v>12.97</v>
+        <v>23.02</v>
       </c>
       <c r="D76" s="5" t="n">
         <v>0.22</v>
@@ -2868,7 +2868,7 @@
         <v>44228.76041666666</v>
       </c>
       <c r="C77" s="5" t="n">
-        <v>13.19</v>
+        <v>23.25</v>
       </c>
       <c r="D77" s="5" t="n">
         <v>0.22</v>
@@ -2900,7 +2900,7 @@
         <v>44228.77083333334</v>
       </c>
       <c r="C78" s="5" t="n">
-        <v>13.42</v>
+        <v>23.47</v>
       </c>
       <c r="D78" s="5" t="n">
         <v>0.22</v>
@@ -2932,7 +2932,7 @@
         <v>44228.78125</v>
       </c>
       <c r="C79" s="5" t="n">
-        <v>13.64</v>
+        <v>23.7</v>
       </c>
       <c r="D79" s="5" t="n">
         <v>0.22</v>
@@ -2964,7 +2964,7 @@
         <v>44228.79166666666</v>
       </c>
       <c r="C80" s="5" t="n">
-        <v>13.87</v>
+        <v>23.92</v>
       </c>
       <c r="D80" s="5" t="n">
         <v>0.22</v>
@@ -2996,7 +2996,7 @@
         <v>44228.80208333334</v>
       </c>
       <c r="C81" s="5" t="n">
-        <v>14.17</v>
+        <v>24.22</v>
       </c>
       <c r="D81" s="5" t="n">
         <v>0.29</v>
@@ -3028,7 +3028,7 @@
         <v>44228.8125</v>
       </c>
       <c r="C82" s="5" t="n">
-        <v>14.47</v>
+        <v>24.52</v>
       </c>
       <c r="D82" s="5" t="n">
         <v>0.29</v>
@@ -3060,7 +3060,7 @@
         <v>44228.82291666666</v>
       </c>
       <c r="C83" s="5" t="n">
-        <v>14.77</v>
+        <v>24.82</v>
       </c>
       <c r="D83" s="5" t="n">
         <v>0.29</v>
@@ -3092,7 +3092,7 @@
         <v>44228.83333333334</v>
       </c>
       <c r="C84" s="5" t="n">
-        <v>15.07</v>
+        <v>25.12</v>
       </c>
       <c r="D84" s="5" t="n">
         <v>0.29</v>
@@ -3124,7 +3124,7 @@
         <v>44228.84375</v>
       </c>
       <c r="C85" s="5" t="n">
-        <v>15.37</v>
+        <v>25.42</v>
       </c>
       <c r="D85" s="5" t="n">
         <v>0.29</v>
@@ -3156,7 +3156,7 @@
         <v>44228.85416666666</v>
       </c>
       <c r="C86" s="5" t="n">
-        <v>15.67</v>
+        <v>25.72</v>
       </c>
       <c r="D86" s="5" t="n">
         <v>0.29</v>
@@ -3188,7 +3188,7 @@
         <v>44228.86458333334</v>
       </c>
       <c r="C87" s="5" t="n">
-        <v>15.97</v>
+        <v>26.02</v>
       </c>
       <c r="D87" s="5" t="n">
         <v>0.29</v>
@@ -3220,7 +3220,7 @@
         <v>44228.875</v>
       </c>
       <c r="C88" s="5" t="n">
-        <v>16.27</v>
+        <v>26.32</v>
       </c>
       <c r="D88" s="5" t="n">
         <v>0.29</v>
@@ -3252,7 +3252,7 @@
         <v>44228.88541666666</v>
       </c>
       <c r="C89" s="5" t="n">
-        <v>16.57</v>
+        <v>26.62</v>
       </c>
       <c r="D89" s="5" t="n">
         <v>0.29</v>
@@ -3284,7 +3284,7 @@
         <v>44228.89583333334</v>
       </c>
       <c r="C90" s="5" t="n">
-        <v>16.87</v>
+        <v>26.92</v>
       </c>
       <c r="D90" s="5" t="n">
         <v>0.29</v>
@@ -3316,7 +3316,7 @@
         <v>44228.90625</v>
       </c>
       <c r="C91" s="5" t="n">
-        <v>17.17</v>
+        <v>27.22</v>
       </c>
       <c r="D91" s="5" t="n">
         <v>0.29</v>
@@ -3348,7 +3348,7 @@
         <v>44228.91666666666</v>
       </c>
       <c r="C92" s="5" t="n">
-        <v>17.27</v>
+        <v>27.32</v>
       </c>
       <c r="D92" s="5" t="n">
         <v>0.09</v>
@@ -3380,7 +3380,7 @@
         <v>44228.92708333334</v>
       </c>
       <c r="C93" s="5" t="n">
-        <v>17.34</v>
+        <v>27.4</v>
       </c>
       <c r="D93" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -3412,7 +3412,7 @@
         <v>44228.9375</v>
       </c>
       <c r="C94" s="5" t="n">
-        <v>17.42</v>
+        <v>27.47</v>
       </c>
       <c r="D94" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -3444,7 +3444,7 @@
         <v>44228.94791666666</v>
       </c>
       <c r="C95" s="5" t="n">
-        <v>17.49</v>
+        <v>27.55</v>
       </c>
       <c r="D95" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -3476,7 +3476,7 @@
         <v>44228.95833333334</v>
       </c>
       <c r="C96" s="5" t="n">
-        <v>17.57</v>
+        <v>27.62</v>
       </c>
       <c r="D96" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -3508,7 +3508,7 @@
         <v>44228.96875</v>
       </c>
       <c r="C97" s="5" t="n">
-        <v>17.62</v>
+        <v>27.67</v>
       </c>
       <c r="D97" s="5" t="n">
         <v>0.04</v>
@@ -3540,7 +3540,7 @@
         <v>44228.97916666666</v>
       </c>
       <c r="C98" s="5" t="n">
-        <v>17.67</v>
+        <v>27.72</v>
       </c>
       <c r="D98" s="5" t="n">
         <v>0.04</v>
@@ -3572,7 +3572,7 @@
         <v>44228.98958333334</v>
       </c>
       <c r="C99" s="5" t="n">
-        <v>17.72</v>
+        <v>27.77</v>
       </c>
       <c r="D99" s="5" t="n">
         <v>0.04</v>
@@ -3604,7 +3604,7 @@
         <v>44229</v>
       </c>
       <c r="C100" s="5" t="n">
-        <v>17.77</v>
+        <v>27.82</v>
       </c>
       <c r="D100" s="5" t="n">
         <v>0.04</v>
@@ -3636,7 +3636,7 @@
         <v>44229.01041666666</v>
       </c>
       <c r="C101" s="5" t="n">
-        <v>17.79</v>
+        <v>27.85</v>
       </c>
       <c r="D101" s="5" t="n">
         <v>0.02</v>
@@ -3668,7 +3668,7 @@
         <v>44229.02083333334</v>
       </c>
       <c r="C102" s="5" t="n">
-        <v>17.82</v>
+        <v>27.87</v>
       </c>
       <c r="D102" s="5" t="n">
         <v>0.02</v>
@@ -3700,7 +3700,7 @@
         <v>44229.03125</v>
       </c>
       <c r="C103" s="5" t="n">
-        <v>17.84</v>
+        <v>27.9</v>
       </c>
       <c r="D103" s="5" t="n">
         <v>0.02</v>
@@ -3732,7 +3732,7 @@
         <v>44229.04166666666</v>
       </c>
       <c r="C104" s="5" t="n">
-        <v>17.87</v>
+        <v>27.92</v>
       </c>
       <c r="D104" s="5" t="n">
         <v>0.02</v>
@@ -3764,7 +3764,7 @@
         <v>44229.05208333334</v>
       </c>
       <c r="C105" s="5" t="n">
-        <v>17.89</v>
+        <v>27.95</v>
       </c>
       <c r="D105" s="5" t="n">
         <v>0.02</v>
@@ -3796,7 +3796,7 @@
         <v>44229.0625</v>
       </c>
       <c r="C106" s="5" t="n">
-        <v>17.92</v>
+        <v>27.97</v>
       </c>
       <c r="D106" s="5" t="n">
         <v>0.02</v>
@@ -3828,7 +3828,7 @@
         <v>44229.07291666666</v>
       </c>
       <c r="C107" s="5" t="n">
-        <v>17.94</v>
+        <v>28</v>
       </c>
       <c r="D107" s="5" t="n">
         <v>0.02</v>
@@ -3860,7 +3860,7 @@
         <v>44229.08333333334</v>
       </c>
       <c r="C108" s="5" t="n">
-        <v>17.97</v>
+        <v>28.02</v>
       </c>
       <c r="D108" s="5" t="n">
         <v>0.02</v>
@@ -3892,7 +3892,7 @@
         <v>44229.09375</v>
       </c>
       <c r="C109" s="5" t="n">
-        <v>17.99</v>
+        <v>28.05</v>
       </c>
       <c r="D109" s="5" t="n">
         <v>0.02</v>
@@ -3924,7 +3924,7 @@
         <v>44229.10416666666</v>
       </c>
       <c r="C110" s="5" t="n">
-        <v>18.02</v>
+        <v>28.07</v>
       </c>
       <c r="D110" s="5" t="n">
         <v>0.02</v>
@@ -3956,7 +3956,7 @@
         <v>44229.11458333334</v>
       </c>
       <c r="C111" s="5" t="n">
-        <v>18.04</v>
+        <v>28.1</v>
       </c>
       <c r="D111" s="5" t="n">
         <v>0.02</v>
@@ -3988,7 +3988,7 @@
         <v>44229.125</v>
       </c>
       <c r="C112" s="5" t="n">
-        <v>18.07</v>
+        <v>28.12</v>
       </c>
       <c r="D112" s="5" t="n">
         <v>0.02</v>
@@ -4020,7 +4020,7 @@
         <v>44229.13541666666</v>
       </c>
       <c r="C113" s="5" t="n">
-        <v>18.09</v>
+        <v>28.15</v>
       </c>
       <c r="D113" s="5" t="n">
         <v>0.02</v>
@@ -4052,7 +4052,7 @@
         <v>44229.14583333334</v>
       </c>
       <c r="C114" s="5" t="n">
-        <v>18.12</v>
+        <v>28.17</v>
       </c>
       <c r="D114" s="5" t="n">
         <v>0.02</v>
@@ -4084,7 +4084,7 @@
         <v>44229.15625</v>
       </c>
       <c r="C115" s="5" t="n">
-        <v>18.14</v>
+        <v>28.2</v>
       </c>
       <c r="D115" s="5" t="n">
         <v>0.02</v>
@@ -4116,7 +4116,7 @@
         <v>44229.16666666666</v>
       </c>
       <c r="C116" s="5" t="n">
-        <v>18.17</v>
+        <v>28.22</v>
       </c>
       <c r="D116" s="5" t="n">
         <v>0.02</v>
@@ -4148,7 +4148,7 @@
         <v>44229.17708333334</v>
       </c>
       <c r="C117" s="5" t="n">
-        <v>18.19</v>
+        <v>28.25</v>
       </c>
       <c r="D117" s="5" t="n">
         <v>0.02</v>
@@ -4180,7 +4180,7 @@
         <v>44229.1875</v>
       </c>
       <c r="C118" s="5" t="n">
-        <v>18.22</v>
+        <v>28.27</v>
       </c>
       <c r="D118" s="5" t="n">
         <v>0.02</v>
@@ -4212,7 +4212,7 @@
         <v>44229.19791666666</v>
       </c>
       <c r="C119" s="5" t="n">
-        <v>18.24</v>
+        <v>28.3</v>
       </c>
       <c r="D119" s="5" t="n">
         <v>0.02</v>
@@ -4244,7 +4244,7 @@
         <v>44229.20833333334</v>
       </c>
       <c r="C120" s="5" t="n">
-        <v>18.27</v>
+        <v>28.32</v>
       </c>
       <c r="D120" s="5" t="n">
         <v>0.02</v>
@@ -4276,7 +4276,7 @@
         <v>44229.21875</v>
       </c>
       <c r="C121" s="5" t="n">
-        <v>18.34</v>
+        <v>28.4</v>
       </c>
       <c r="D121" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -4308,7 +4308,7 @@
         <v>44229.22916666666</v>
       </c>
       <c r="C122" s="5" t="n">
-        <v>18.42</v>
+        <v>28.47</v>
       </c>
       <c r="D122" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -4340,7 +4340,7 @@
         <v>44229.23958333334</v>
       </c>
       <c r="C123" s="5" t="n">
-        <v>18.49</v>
+        <v>28.55</v>
       </c>
       <c r="D123" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -4372,7 +4372,7 @@
         <v>44229.25</v>
       </c>
       <c r="C124" s="5" t="n">
-        <v>18.72</v>
+        <v>28.77</v>
       </c>
       <c r="D124" s="5" t="n">
         <v>0.22</v>
@@ -4404,7 +4404,7 @@
         <v>44229.26041666666</v>
       </c>
       <c r="C125" s="5" t="n">
-        <v>19.02</v>
+        <v>29.07</v>
       </c>
       <c r="D125" s="5" t="n">
         <v>0.29</v>
@@ -4436,7 +4436,7 @@
         <v>44229.27083333334</v>
       </c>
       <c r="C126" s="5" t="n">
-        <v>19.32</v>
+        <v>29.37</v>
       </c>
       <c r="D126" s="5" t="n">
         <v>0.29</v>
@@ -4468,7 +4468,7 @@
         <v>44229.28125</v>
       </c>
       <c r="C127" s="5" t="n">
-        <v>19.62</v>
+        <v>29.67</v>
       </c>
       <c r="D127" s="5" t="n">
         <v>0.29</v>
@@ -4500,7 +4500,7 @@
         <v>44229.29166666666</v>
       </c>
       <c r="C128" s="5" t="n">
-        <v>19.92</v>
+        <v>29.97</v>
       </c>
       <c r="D128" s="5" t="n">
         <v>0.29</v>
@@ -4532,7 +4532,7 @@
         <v>44229.30208333334</v>
       </c>
       <c r="C129" s="5" t="n">
-        <v>20.22</v>
+        <v>30.27</v>
       </c>
       <c r="D129" s="5" t="n">
         <v>0.29</v>
@@ -4564,7 +4564,7 @@
         <v>44229.3125</v>
       </c>
       <c r="C130" s="5" t="n">
-        <v>20.52</v>
+        <v>30.57</v>
       </c>
       <c r="D130" s="5" t="n">
         <v>0.29</v>
@@ -4596,7 +4596,7 @@
         <v>44229.32291666666</v>
       </c>
       <c r="C131" s="5" t="n">
-        <v>20.82</v>
+        <v>30.87</v>
       </c>
       <c r="D131" s="5" t="n">
         <v>0.29</v>
@@ -4628,7 +4628,7 @@
         <v>44229.33333333334</v>
       </c>
       <c r="C132" s="5" t="n">
-        <v>21.12</v>
+        <v>31.17</v>
       </c>
       <c r="D132" s="5" t="n">
         <v>0.29</v>
@@ -4660,7 +4660,7 @@
         <v>44229.34375</v>
       </c>
       <c r="C133" s="5" t="n">
-        <v>21.12</v>
+        <v>31.17</v>
       </c>
       <c r="D133" s="5" t="n">
         <v>0</v>
@@ -4692,7 +4692,7 @@
         <v>44229.35416666666</v>
       </c>
       <c r="C134" s="5" t="n">
-        <v>21.12</v>
+        <v>31.17</v>
       </c>
       <c r="D134" s="5" t="n">
         <v>0</v>
@@ -4724,7 +4724,7 @@
         <v>44229.36458333334</v>
       </c>
       <c r="C135" s="5" t="n">
-        <v>21.12</v>
+        <v>31.17</v>
       </c>
       <c r="D135" s="5" t="n">
         <v>0</v>
@@ -4756,7 +4756,7 @@
         <v>44229.375</v>
       </c>
       <c r="C136" s="5" t="n">
-        <v>21.12</v>
+        <v>31.17</v>
       </c>
       <c r="D136" s="5" t="n">
         <v>0</v>
@@ -4788,10 +4788,10 @@
         <v>44229.38541666666</v>
       </c>
       <c r="C137" s="5" t="n">
-        <v>21.05</v>
+        <v>31.08</v>
       </c>
       <c r="D137" s="5" t="n">
-        <v>-0.06</v>
+        <v>-0.09</v>
       </c>
       <c r="E137" s="6" t="n">
         <v>2</v>
@@ -4820,7 +4820,7 @@
         <v>44229.39583333334</v>
       </c>
       <c r="C138" s="5" t="n">
-        <v>20.96</v>
+        <v>30.98</v>
       </c>
       <c r="D138" s="5" t="n">
         <v>-0.09</v>
@@ -4852,10 +4852,10 @@
         <v>44229.40625</v>
       </c>
       <c r="C139" s="5" t="n">
-        <v>20.89</v>
+        <v>30.89</v>
       </c>
       <c r="D139" s="5" t="n">
-        <v>-0.06</v>
+        <v>-0.09</v>
       </c>
       <c r="E139" s="6" t="n">
         <v>2</v>
@@ -4884,7 +4884,7 @@
         <v>44229.41666666666</v>
       </c>
       <c r="C140" s="5" t="n">
-        <v>20.8</v>
+        <v>30.79</v>
       </c>
       <c r="D140" s="5" t="n">
         <v>-0.09</v>
@@ -4916,10 +4916,10 @@
         <v>44229.42708333334</v>
       </c>
       <c r="C141" s="5" t="n">
-        <v>20.63</v>
+        <v>30.51</v>
       </c>
       <c r="D141" s="5" t="n">
-        <v>-0.16</v>
+        <v>-0.28</v>
       </c>
       <c r="E141" s="6" t="n">
         <v>6</v>
@@ -4948,10 +4948,10 @@
         <v>44229.4375</v>
       </c>
       <c r="C142" s="5" t="n">
-        <v>20.45</v>
+        <v>30.22</v>
       </c>
       <c r="D142" s="5" t="n">
-        <v>-0.17</v>
+        <v>-0.28</v>
       </c>
       <c r="E142" s="6" t="n">
         <v>6</v>
@@ -4980,10 +4980,10 @@
         <v>44229.44791666666</v>
       </c>
       <c r="C143" s="5" t="n">
-        <v>20.28</v>
+        <v>29.94</v>
       </c>
       <c r="D143" s="5" t="n">
-        <v>-0.17</v>
+        <v>-0.28</v>
       </c>
       <c r="E143" s="6" t="n">
         <v>6</v>
@@ -5012,10 +5012,10 @@
         <v>44229.45833333334</v>
       </c>
       <c r="C144" s="5" t="n">
-        <v>20.1</v>
+        <v>29.65</v>
       </c>
       <c r="D144" s="5" t="n">
-        <v>-0.17</v>
+        <v>-0.28</v>
       </c>
       <c r="E144" s="6" t="n">
         <v>6.133</v>
@@ -5044,10 +5044,10 @@
         <v>44229.46875</v>
       </c>
       <c r="C145" s="5" t="n">
-        <v>19.85</v>
+        <v>29.29</v>
       </c>
       <c r="D145" s="5" t="n">
-        <v>-0.25</v>
+        <v>-0.36</v>
       </c>
       <c r="E145" s="6" t="n">
         <v>10</v>
@@ -5076,7 +5076,7 @@
         <v>44229.47916666666</v>
       </c>
       <c r="C146" s="5" t="n">
-        <v>19.37</v>
+        <v>28.81</v>
       </c>
       <c r="D146" s="5" t="n">
         <v>-0.47</v>
@@ -5108,7 +5108,7 @@
         <v>44229.48958333334</v>
       </c>
       <c r="C147" s="5" t="n">
-        <v>18.9</v>
+        <v>28.34</v>
       </c>
       <c r="D147" s="5" t="n">
         <v>-0.47</v>
@@ -5140,10 +5140,10 @@
         <v>44229.5</v>
       </c>
       <c r="C148" s="5" t="n">
-        <v>18.68</v>
+        <v>27.99</v>
       </c>
       <c r="D148" s="5" t="n">
-        <v>-0.22</v>
+        <v>-0.34</v>
       </c>
       <c r="E148" s="6" t="n">
         <v>10.067</v>
@@ -5172,10 +5172,10 @@
         <v>44229.51041666666</v>
       </c>
       <c r="C149" s="5" t="n">
-        <v>18.42</v>
+        <v>27.68</v>
       </c>
       <c r="D149" s="5" t="n">
-        <v>-0.25</v>
+        <v>-0.3</v>
       </c>
       <c r="E149" s="6" t="n">
         <v>12</v>
@@ -5204,10 +5204,10 @@
         <v>44229.52083333334</v>
       </c>
       <c r="C150" s="5" t="n">
-        <v>18.16</v>
+        <v>27.38</v>
       </c>
       <c r="D150" s="5" t="n">
-        <v>-0.25</v>
+        <v>-0.3</v>
       </c>
       <c r="E150" s="6" t="n">
         <v>12</v>
@@ -5236,10 +5236,10 @@
         <v>44229.53125</v>
       </c>
       <c r="C151" s="5" t="n">
-        <v>17.9</v>
+        <v>27.08</v>
       </c>
       <c r="D151" s="5" t="n">
-        <v>-0.25</v>
+        <v>-0.29</v>
       </c>
       <c r="E151" s="6" t="n">
         <v>12</v>
@@ -5268,10 +5268,10 @@
         <v>44229.54166666666</v>
       </c>
       <c r="C152" s="5" t="n">
-        <v>17.65</v>
+        <v>26.79</v>
       </c>
       <c r="D152" s="5" t="n">
-        <v>-0.25</v>
+        <v>-0.29</v>
       </c>
       <c r="E152" s="6" t="n">
         <v>11.933</v>
@@ -5300,10 +5300,10 @@
         <v>44229.55208333334</v>
       </c>
       <c r="C153" s="5" t="n">
-        <v>17.43</v>
+        <v>26.44</v>
       </c>
       <c r="D153" s="5" t="n">
-        <v>-0.21</v>
+        <v>-0.34</v>
       </c>
       <c r="E153" s="6" t="n">
         <v>10</v>
@@ -5332,10 +5332,10 @@
         <v>44229.5625</v>
       </c>
       <c r="C154" s="5" t="n">
-        <v>17.21</v>
+        <v>26.09</v>
       </c>
       <c r="D154" s="5" t="n">
-        <v>-0.21</v>
+        <v>-0.34</v>
       </c>
       <c r="E154" s="6" t="n">
         <v>10</v>
@@ -5364,10 +5364,10 @@
         <v>44229.57291666666</v>
       </c>
       <c r="C155" s="5" t="n">
-        <v>16.99</v>
+        <v>25.74</v>
       </c>
       <c r="D155" s="5" t="n">
-        <v>-0.21</v>
+        <v>-0.34</v>
       </c>
       <c r="E155" s="6" t="n">
         <v>10</v>
@@ -5396,10 +5396,10 @@
         <v>44229.58333333334</v>
       </c>
       <c r="C156" s="5" t="n">
-        <v>16.77</v>
+        <v>25.48</v>
       </c>
       <c r="D156" s="5" t="n">
-        <v>-0.21</v>
+        <v>-0.25</v>
       </c>
       <c r="E156" s="6" t="n">
         <v>9.867000000000001</v>
@@ -5428,10 +5428,10 @@
         <v>44229.59375</v>
       </c>
       <c r="C157" s="5" t="n">
-        <v>16.63</v>
+        <v>25.3</v>
       </c>
       <c r="D157" s="5" t="n">
-        <v>-0.13</v>
+        <v>-0.17</v>
       </c>
       <c r="E157" s="6" t="n">
         <v>6</v>
@@ -5460,10 +5460,10 @@
         <v>44229.60416666666</v>
       </c>
       <c r="C158" s="5" t="n">
-        <v>16.49</v>
+        <v>25.12</v>
       </c>
       <c r="D158" s="5" t="n">
-        <v>-0.13</v>
+        <v>-0.17</v>
       </c>
       <c r="E158" s="6" t="n">
         <v>6</v>
@@ -5492,10 +5492,10 @@
         <v>44229.61458333334</v>
       </c>
       <c r="C159" s="5" t="n">
-        <v>16.35</v>
+        <v>24.94</v>
       </c>
       <c r="D159" s="5" t="n">
-        <v>-0.13</v>
+        <v>-0.17</v>
       </c>
       <c r="E159" s="6" t="n">
         <v>6</v>
@@ -5524,10 +5524,10 @@
         <v>44229.625</v>
       </c>
       <c r="C160" s="5" t="n">
-        <v>16.21</v>
+        <v>24.76</v>
       </c>
       <c r="D160" s="5" t="n">
-        <v>-0.13</v>
+        <v>-0.17</v>
       </c>
       <c r="E160" s="6" t="n">
         <v>5.867</v>
@@ -5556,10 +5556,10 @@
         <v>44229.63541666666</v>
       </c>
       <c r="C161" s="5" t="n">
-        <v>16.15</v>
+        <v>24.69</v>
       </c>
       <c r="D161" s="5" t="n">
-        <v>-0.05</v>
+        <v>-0.06</v>
       </c>
       <c r="E161" s="6" t="n">
         <v>2</v>
@@ -5588,10 +5588,10 @@
         <v>44229.64583333334</v>
       </c>
       <c r="C162" s="5" t="n">
-        <v>16.09</v>
+        <v>24.62</v>
       </c>
       <c r="D162" s="5" t="n">
-        <v>-0.05</v>
+        <v>-0.06</v>
       </c>
       <c r="E162" s="6" t="n">
         <v>2</v>
@@ -5620,10 +5620,10 @@
         <v>44229.65625</v>
       </c>
       <c r="C163" s="5" t="n">
-        <v>16.03</v>
+        <v>24.55</v>
       </c>
       <c r="D163" s="5" t="n">
-        <v>-0.05</v>
+        <v>-0.06</v>
       </c>
       <c r="E163" s="6" t="n">
         <v>2</v>
@@ -5652,10 +5652,10 @@
         <v>44229.66666666666</v>
       </c>
       <c r="C164" s="5" t="n">
-        <v>15.95</v>
+        <v>24.46</v>
       </c>
       <c r="D164" s="5" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.09</v>
       </c>
       <c r="E164" s="6" t="n">
         <v>1.933</v>
@@ -5684,7 +5684,7 @@
         <v>44229.67708333334</v>
       </c>
       <c r="C165" s="5" t="n">
-        <v>15.95</v>
+        <v>24.46</v>
       </c>
       <c r="D165" s="5" t="n">
         <v>0</v>
@@ -5716,7 +5716,7 @@
         <v>44229.6875</v>
       </c>
       <c r="C166" s="5" t="n">
-        <v>15.95</v>
+        <v>24.46</v>
       </c>
       <c r="D166" s="5" t="n">
         <v>0</v>
@@ -5748,7 +5748,7 @@
         <v>44229.69791666666</v>
       </c>
       <c r="C167" s="5" t="n">
-        <v>15.95</v>
+        <v>24.46</v>
       </c>
       <c r="D167" s="5" t="n">
         <v>0</v>
@@ -5780,7 +5780,7 @@
         <v>44229.70833333334</v>
       </c>
       <c r="C168" s="5" t="n">
-        <v>15.95</v>
+        <v>24.46</v>
       </c>
       <c r="D168" s="5" t="n">
         <v>0</v>
@@ -5812,7 +5812,7 @@
         <v>44229.71875</v>
       </c>
       <c r="C169" s="5" t="n">
-        <v>16.18</v>
+        <v>24.68</v>
       </c>
       <c r="D169" s="5" t="n">
         <v>0.22</v>
@@ -5844,7 +5844,7 @@
         <v>44229.72916666666</v>
       </c>
       <c r="C170" s="5" t="n">
-        <v>16.4</v>
+        <v>24.91</v>
       </c>
       <c r="D170" s="5" t="n">
         <v>0.22</v>
@@ -5876,7 +5876,7 @@
         <v>44229.73958333334</v>
       </c>
       <c r="C171" s="5" t="n">
-        <v>16.63</v>
+        <v>25.13</v>
       </c>
       <c r="D171" s="5" t="n">
         <v>0.22</v>
@@ -5908,7 +5908,7 @@
         <v>44229.75</v>
       </c>
       <c r="C172" s="5" t="n">
-        <v>16.85</v>
+        <v>25.36</v>
       </c>
       <c r="D172" s="5" t="n">
         <v>0.22</v>
@@ -5940,7 +5940,7 @@
         <v>44229.76041666666</v>
       </c>
       <c r="C173" s="5" t="n">
-        <v>17.08</v>
+        <v>25.58</v>
       </c>
       <c r="D173" s="5" t="n">
         <v>0.22</v>
@@ -5972,7 +5972,7 @@
         <v>44229.77083333334</v>
       </c>
       <c r="C174" s="5" t="n">
-        <v>17.3</v>
+        <v>25.81</v>
       </c>
       <c r="D174" s="5" t="n">
         <v>0.22</v>
@@ -6004,7 +6004,7 @@
         <v>44229.78125</v>
       </c>
       <c r="C175" s="5" t="n">
-        <v>17.53</v>
+        <v>26.03</v>
       </c>
       <c r="D175" s="5" t="n">
         <v>0.22</v>
@@ -6036,7 +6036,7 @@
         <v>44229.79166666666</v>
       </c>
       <c r="C176" s="5" t="n">
-        <v>17.75</v>
+        <v>26.26</v>
       </c>
       <c r="D176" s="5" t="n">
         <v>0.22</v>
@@ -6068,7 +6068,7 @@
         <v>44229.80208333334</v>
       </c>
       <c r="C177" s="5" t="n">
-        <v>18.05</v>
+        <v>26.56</v>
       </c>
       <c r="D177" s="5" t="n">
         <v>0.29</v>
@@ -6100,7 +6100,7 @@
         <v>44229.8125</v>
       </c>
       <c r="C178" s="5" t="n">
-        <v>18.35</v>
+        <v>26.86</v>
       </c>
       <c r="D178" s="5" t="n">
         <v>0.29</v>
@@ -6132,7 +6132,7 @@
         <v>44229.82291666666</v>
       </c>
       <c r="C179" s="5" t="n">
-        <v>18.65</v>
+        <v>27.16</v>
       </c>
       <c r="D179" s="5" t="n">
         <v>0.29</v>
@@ -6164,7 +6164,7 @@
         <v>44229.83333333334</v>
       </c>
       <c r="C180" s="5" t="n">
-        <v>18.95</v>
+        <v>27.46</v>
       </c>
       <c r="D180" s="5" t="n">
         <v>0.29</v>
@@ -6196,7 +6196,7 @@
         <v>44229.84375</v>
       </c>
       <c r="C181" s="5" t="n">
-        <v>19.25</v>
+        <v>27.76</v>
       </c>
       <c r="D181" s="5" t="n">
         <v>0.29</v>
@@ -6228,7 +6228,7 @@
         <v>44229.85416666666</v>
       </c>
       <c r="C182" s="5" t="n">
-        <v>19.55</v>
+        <v>28.06</v>
       </c>
       <c r="D182" s="5" t="n">
         <v>0.29</v>
@@ -6260,7 +6260,7 @@
         <v>44229.86458333334</v>
       </c>
       <c r="C183" s="5" t="n">
-        <v>19.85</v>
+        <v>28.36</v>
       </c>
       <c r="D183" s="5" t="n">
         <v>0.29</v>
@@ -6292,7 +6292,7 @@
         <v>44229.875</v>
       </c>
       <c r="C184" s="5" t="n">
-        <v>20.15</v>
+        <v>28.66</v>
       </c>
       <c r="D184" s="5" t="n">
         <v>0.29</v>
@@ -6324,7 +6324,7 @@
         <v>44229.88541666666</v>
       </c>
       <c r="C185" s="5" t="n">
-        <v>20.45</v>
+        <v>28.96</v>
       </c>
       <c r="D185" s="5" t="n">
         <v>0.29</v>
@@ -6356,7 +6356,7 @@
         <v>44229.89583333334</v>
       </c>
       <c r="C186" s="5" t="n">
-        <v>20.75</v>
+        <v>29.26</v>
       </c>
       <c r="D186" s="5" t="n">
         <v>0.29</v>
@@ -6388,7 +6388,7 @@
         <v>44229.90625</v>
       </c>
       <c r="C187" s="5" t="n">
-        <v>21.05</v>
+        <v>29.56</v>
       </c>
       <c r="D187" s="5" t="n">
         <v>0.29</v>
@@ -6420,7 +6420,7 @@
         <v>44229.91666666666</v>
       </c>
       <c r="C188" s="5" t="n">
-        <v>21.15</v>
+        <v>29.66</v>
       </c>
       <c r="D188" s="5" t="n">
         <v>0.09</v>
@@ -6452,7 +6452,7 @@
         <v>44229.92708333334</v>
       </c>
       <c r="C189" s="5" t="n">
-        <v>21.23</v>
+        <v>29.73</v>
       </c>
       <c r="D189" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -6484,7 +6484,7 @@
         <v>44229.9375</v>
       </c>
       <c r="C190" s="5" t="n">
-        <v>21.3</v>
+        <v>29.81</v>
       </c>
       <c r="D190" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -6516,7 +6516,7 @@
         <v>44229.94791666666</v>
       </c>
       <c r="C191" s="5" t="n">
-        <v>21.38</v>
+        <v>29.88</v>
       </c>
       <c r="D191" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -6548,7 +6548,7 @@
         <v>44229.95833333334</v>
       </c>
       <c r="C192" s="5" t="n">
-        <v>21.45</v>
+        <v>29.96</v>
       </c>
       <c r="D192" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -6580,7 +6580,7 @@
         <v>44229.96875</v>
       </c>
       <c r="C193" s="5" t="n">
-        <v>21.5</v>
+        <v>30.01</v>
       </c>
       <c r="D193" s="5" t="n">
         <v>0.04</v>
@@ -6612,7 +6612,7 @@
         <v>44229.97916666666</v>
       </c>
       <c r="C194" s="5" t="n">
-        <v>21.55</v>
+        <v>30.06</v>
       </c>
       <c r="D194" s="5" t="n">
         <v>0.04</v>
@@ -6644,7 +6644,7 @@
         <v>44229.98958333334</v>
       </c>
       <c r="C195" s="5" t="n">
-        <v>21.6</v>
+        <v>30.11</v>
       </c>
       <c r="D195" s="5" t="n">
         <v>0.04</v>
@@ -6676,7 +6676,7 @@
         <v>44230</v>
       </c>
       <c r="C196" s="5" t="n">
-        <v>21.65</v>
+        <v>30.16</v>
       </c>
       <c r="D196" s="5" t="n">
         <v>0.04</v>
@@ -6708,7 +6708,7 @@
         <v>44230.01041666666</v>
       </c>
       <c r="C197" s="5" t="n">
-        <v>21.68</v>
+        <v>30.18</v>
       </c>
       <c r="D197" s="5" t="n">
         <v>0.02</v>
@@ -6740,7 +6740,7 @@
         <v>44230.02083333334</v>
       </c>
       <c r="C198" s="5" t="n">
-        <v>21.7</v>
+        <v>30.21</v>
       </c>
       <c r="D198" s="5" t="n">
         <v>0.02</v>
@@ -6772,7 +6772,7 @@
         <v>44230.03125</v>
       </c>
       <c r="C199" s="5" t="n">
-        <v>21.73</v>
+        <v>30.23</v>
       </c>
       <c r="D199" s="5" t="n">
         <v>0.02</v>
@@ -6804,7 +6804,7 @@
         <v>44230.04166666666</v>
       </c>
       <c r="C200" s="5" t="n">
-        <v>21.75</v>
+        <v>30.26</v>
       </c>
       <c r="D200" s="5" t="n">
         <v>0.02</v>
@@ -6836,7 +6836,7 @@
         <v>44230.05208333334</v>
       </c>
       <c r="C201" s="5" t="n">
-        <v>21.78</v>
+        <v>30.28</v>
       </c>
       <c r="D201" s="5" t="n">
         <v>0.02</v>
@@ -6868,7 +6868,7 @@
         <v>44230.0625</v>
       </c>
       <c r="C202" s="5" t="n">
-        <v>21.8</v>
+        <v>30.31</v>
       </c>
       <c r="D202" s="5" t="n">
         <v>0.02</v>
@@ -6900,7 +6900,7 @@
         <v>44230.07291666666</v>
       </c>
       <c r="C203" s="5" t="n">
-        <v>21.83</v>
+        <v>30.33</v>
       </c>
       <c r="D203" s="5" t="n">
         <v>0.02</v>
@@ -6932,7 +6932,7 @@
         <v>44230.08333333334</v>
       </c>
       <c r="C204" s="5" t="n">
-        <v>21.85</v>
+        <v>30.36</v>
       </c>
       <c r="D204" s="5" t="n">
         <v>0.02</v>
@@ -6964,7 +6964,7 @@
         <v>44230.09375</v>
       </c>
       <c r="C205" s="5" t="n">
-        <v>21.88</v>
+        <v>30.38</v>
       </c>
       <c r="D205" s="5" t="n">
         <v>0.02</v>
@@ -6996,7 +6996,7 @@
         <v>44230.10416666666</v>
       </c>
       <c r="C206" s="5" t="n">
-        <v>21.9</v>
+        <v>30.41</v>
       </c>
       <c r="D206" s="5" t="n">
         <v>0.02</v>
@@ -7028,7 +7028,7 @@
         <v>44230.11458333334</v>
       </c>
       <c r="C207" s="5" t="n">
-        <v>21.93</v>
+        <v>30.43</v>
       </c>
       <c r="D207" s="5" t="n">
         <v>0.02</v>
@@ -7060,7 +7060,7 @@
         <v>44230.125</v>
       </c>
       <c r="C208" s="5" t="n">
-        <v>21.95</v>
+        <v>30.46</v>
       </c>
       <c r="D208" s="5" t="n">
         <v>0.02</v>
@@ -7092,7 +7092,7 @@
         <v>44230.13541666666</v>
       </c>
       <c r="C209" s="5" t="n">
-        <v>21.98</v>
+        <v>30.48</v>
       </c>
       <c r="D209" s="5" t="n">
         <v>0.02</v>
@@ -7124,7 +7124,7 @@
         <v>44230.14583333334</v>
       </c>
       <c r="C210" s="5" t="n">
-        <v>22</v>
+        <v>30.51</v>
       </c>
       <c r="D210" s="5" t="n">
         <v>0.02</v>
@@ -7156,7 +7156,7 @@
         <v>44230.15625</v>
       </c>
       <c r="C211" s="5" t="n">
-        <v>22.03</v>
+        <v>30.53</v>
       </c>
       <c r="D211" s="5" t="n">
         <v>0.02</v>
@@ -7188,7 +7188,7 @@
         <v>44230.16666666666</v>
       </c>
       <c r="C212" s="5" t="n">
-        <v>22.05</v>
+        <v>30.56</v>
       </c>
       <c r="D212" s="5" t="n">
         <v>0.02</v>
@@ -7220,7 +7220,7 @@
         <v>44230.17708333334</v>
       </c>
       <c r="C213" s="5" t="n">
-        <v>22.08</v>
+        <v>30.58</v>
       </c>
       <c r="D213" s="5" t="n">
         <v>0.02</v>
@@ -7252,7 +7252,7 @@
         <v>44230.1875</v>
       </c>
       <c r="C214" s="5" t="n">
-        <v>22.1</v>
+        <v>30.61</v>
       </c>
       <c r="D214" s="5" t="n">
         <v>0.02</v>
@@ -7284,7 +7284,7 @@
         <v>44230.19791666666</v>
       </c>
       <c r="C215" s="5" t="n">
-        <v>22.13</v>
+        <v>30.63</v>
       </c>
       <c r="D215" s="5" t="n">
         <v>0.02</v>
@@ -7316,7 +7316,7 @@
         <v>44230.20833333334</v>
       </c>
       <c r="C216" s="5" t="n">
-        <v>22.15</v>
+        <v>30.66</v>
       </c>
       <c r="D216" s="5" t="n">
         <v>0.02</v>
@@ -7348,7 +7348,7 @@
         <v>44230.21875</v>
       </c>
       <c r="C217" s="5" t="n">
-        <v>22.23</v>
+        <v>30.73</v>
       </c>
       <c r="D217" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -7380,7 +7380,7 @@
         <v>44230.22916666666</v>
       </c>
       <c r="C218" s="5" t="n">
-        <v>22.3</v>
+        <v>30.81</v>
       </c>
       <c r="D218" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -7412,7 +7412,7 @@
         <v>44230.23958333334</v>
       </c>
       <c r="C219" s="5" t="n">
-        <v>22.38</v>
+        <v>30.88</v>
       </c>
       <c r="D219" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -7444,7 +7444,7 @@
         <v>44230.25</v>
       </c>
       <c r="C220" s="5" t="n">
-        <v>22.6</v>
+        <v>31.11</v>
       </c>
       <c r="D220" s="5" t="n">
         <v>0.22</v>
@@ -7476,7 +7476,7 @@
         <v>44230.26041666666</v>
       </c>
       <c r="C221" s="5" t="n">
-        <v>22.9</v>
+        <v>31.41</v>
       </c>
       <c r="D221" s="5" t="n">
         <v>0.29</v>
@@ -7508,7 +7508,7 @@
         <v>44230.27083333334</v>
       </c>
       <c r="C222" s="5" t="n">
-        <v>23.2</v>
+        <v>31.71</v>
       </c>
       <c r="D222" s="5" t="n">
         <v>0.29</v>
@@ -7540,7 +7540,7 @@
         <v>44230.28125</v>
       </c>
       <c r="C223" s="5" t="n">
-        <v>23.5</v>
+        <v>32.01</v>
       </c>
       <c r="D223" s="5" t="n">
         <v>0.29</v>
@@ -7572,7 +7572,7 @@
         <v>44230.29166666666</v>
       </c>
       <c r="C224" s="5" t="n">
-        <v>23.8</v>
+        <v>32.31</v>
       </c>
       <c r="D224" s="5" t="n">
         <v>0.29</v>
@@ -7604,7 +7604,7 @@
         <v>44230.30208333334</v>
       </c>
       <c r="C225" s="5" t="n">
-        <v>24.1</v>
+        <v>32.61</v>
       </c>
       <c r="D225" s="5" t="n">
         <v>0.29</v>
@@ -7636,7 +7636,7 @@
         <v>44230.3125</v>
       </c>
       <c r="C226" s="5" t="n">
-        <v>24.4</v>
+        <v>32.91</v>
       </c>
       <c r="D226" s="5" t="n">
         <v>0.29</v>
@@ -7668,7 +7668,7 @@
         <v>44230.32291666666</v>
       </c>
       <c r="C227" s="5" t="n">
-        <v>24.7</v>
+        <v>33.21</v>
       </c>
       <c r="D227" s="5" t="n">
         <v>0.29</v>
@@ -7700,7 +7700,7 @@
         <v>44230.33333333334</v>
       </c>
       <c r="C228" s="5" t="n">
-        <v>25</v>
+        <v>33.51</v>
       </c>
       <c r="D228" s="5" t="n">
         <v>0.29</v>
@@ -7732,7 +7732,7 @@
         <v>44230.34375</v>
       </c>
       <c r="C229" s="5" t="n">
-        <v>25</v>
+        <v>33.51</v>
       </c>
       <c r="D229" s="5" t="n">
         <v>0</v>
@@ -7764,7 +7764,7 @@
         <v>44230.35416666666</v>
       </c>
       <c r="C230" s="5" t="n">
-        <v>25</v>
+        <v>33.51</v>
       </c>
       <c r="D230" s="5" t="n">
         <v>0</v>
@@ -7796,7 +7796,7 @@
         <v>44230.36458333334</v>
       </c>
       <c r="C231" s="5" t="n">
-        <v>25</v>
+        <v>33.51</v>
       </c>
       <c r="D231" s="5" t="n">
         <v>0</v>
@@ -7828,7 +7828,7 @@
         <v>44230.375</v>
       </c>
       <c r="C232" s="5" t="n">
-        <v>25</v>
+        <v>33.51</v>
       </c>
       <c r="D232" s="5" t="n">
         <v>0</v>
@@ -7860,10 +7860,10 @@
         <v>44230.38541666666</v>
       </c>
       <c r="C233" s="5" t="n">
-        <v>24.93</v>
+        <v>33.41</v>
       </c>
       <c r="D233" s="5" t="n">
-        <v>-0.06</v>
+        <v>-0.09</v>
       </c>
       <c r="E233" s="6" t="n">
         <v>2</v>
@@ -7892,7 +7892,7 @@
         <v>44230.39583333334</v>
       </c>
       <c r="C234" s="5" t="n">
-        <v>24.84</v>
+        <v>33.32</v>
       </c>
       <c r="D234" s="5" t="n">
         <v>-0.09</v>
@@ -7924,10 +7924,10 @@
         <v>44230.40625</v>
       </c>
       <c r="C235" s="5" t="n">
-        <v>24.77</v>
+        <v>33.22</v>
       </c>
       <c r="D235" s="5" t="n">
-        <v>-0.06</v>
+        <v>-0.09</v>
       </c>
       <c r="E235" s="6" t="n">
         <v>2</v>
@@ -7956,7 +7956,7 @@
         <v>44230.41666666666</v>
       </c>
       <c r="C236" s="5" t="n">
-        <v>24.68</v>
+        <v>33.13</v>
       </c>
       <c r="D236" s="5" t="n">
         <v>-0.09</v>
@@ -7988,10 +7988,10 @@
         <v>44230.42708333334</v>
       </c>
       <c r="C237" s="5" t="n">
-        <v>24.51</v>
+        <v>32.84</v>
       </c>
       <c r="D237" s="5" t="n">
-        <v>-0.16</v>
+        <v>-0.28</v>
       </c>
       <c r="E237" s="6" t="n">
         <v>6</v>
@@ -8020,10 +8020,10 @@
         <v>44230.4375</v>
       </c>
       <c r="C238" s="5" t="n">
-        <v>24.34</v>
+        <v>32.56</v>
       </c>
       <c r="D238" s="5" t="n">
-        <v>-0.17</v>
+        <v>-0.28</v>
       </c>
       <c r="E238" s="6" t="n">
         <v>6</v>
@@ -8052,10 +8052,10 @@
         <v>44230.44791666666</v>
       </c>
       <c r="C239" s="5" t="n">
-        <v>24.16</v>
+        <v>32.27</v>
       </c>
       <c r="D239" s="5" t="n">
-        <v>-0.17</v>
+        <v>-0.28</v>
       </c>
       <c r="E239" s="6" t="n">
         <v>6</v>
@@ -8084,10 +8084,10 @@
         <v>44230.45833333334</v>
       </c>
       <c r="C240" s="5" t="n">
-        <v>23.99</v>
+        <v>31.99</v>
       </c>
       <c r="D240" s="5" t="n">
-        <v>-0.17</v>
+        <v>-0.28</v>
       </c>
       <c r="E240" s="6" t="n">
         <v>6.133</v>
@@ -8116,10 +8116,10 @@
         <v>44230.46875</v>
       </c>
       <c r="C241" s="5" t="n">
-        <v>23.73</v>
+        <v>31.62</v>
       </c>
       <c r="D241" s="5" t="n">
-        <v>-0.25</v>
+        <v>-0.36</v>
       </c>
       <c r="E241" s="6" t="n">
         <v>10</v>
@@ -8148,7 +8148,7 @@
         <v>44230.47916666666</v>
       </c>
       <c r="C242" s="5" t="n">
-        <v>23.26</v>
+        <v>31.15</v>
       </c>
       <c r="D242" s="5" t="n">
         <v>-0.47</v>
@@ -8180,7 +8180,7 @@
         <v>44230.48958333334</v>
       </c>
       <c r="C243" s="5" t="n">
-        <v>22.78</v>
+        <v>30.67</v>
       </c>
       <c r="D243" s="5" t="n">
         <v>-0.47</v>
@@ -8212,10 +8212,10 @@
         <v>44230.5</v>
       </c>
       <c r="C244" s="5" t="n">
-        <v>22.56</v>
+        <v>30.32</v>
       </c>
       <c r="D244" s="5" t="n">
-        <v>-0.22</v>
+        <v>-0.34</v>
       </c>
       <c r="E244" s="6" t="n">
         <v>10.067</v>
@@ -8244,10 +8244,10 @@
         <v>44230.51041666666</v>
       </c>
       <c r="C245" s="5" t="n">
-        <v>22.3</v>
+        <v>30.02</v>
       </c>
       <c r="D245" s="5" t="n">
-        <v>-0.25</v>
+        <v>-0.3</v>
       </c>
       <c r="E245" s="6" t="n">
         <v>12</v>
@@ -8276,10 +8276,10 @@
         <v>44230.52083333334</v>
       </c>
       <c r="C246" s="5" t="n">
-        <v>22.04</v>
+        <v>29.71</v>
       </c>
       <c r="D246" s="5" t="n">
-        <v>-0.25</v>
+        <v>-0.3</v>
       </c>
       <c r="E246" s="6" t="n">
         <v>12</v>
@@ -8308,10 +8308,10 @@
         <v>44230.53125</v>
       </c>
       <c r="C247" s="5" t="n">
-        <v>21.79</v>
+        <v>29.42</v>
       </c>
       <c r="D247" s="5" t="n">
-        <v>-0.25</v>
+        <v>-0.29</v>
       </c>
       <c r="E247" s="6" t="n">
         <v>12</v>
@@ -8340,10 +8340,10 @@
         <v>44230.54166666666</v>
       </c>
       <c r="C248" s="5" t="n">
-        <v>21.53</v>
+        <v>29.13</v>
       </c>
       <c r="D248" s="5" t="n">
-        <v>-0.25</v>
+        <v>-0.29</v>
       </c>
       <c r="E248" s="6" t="n">
         <v>11.933</v>
@@ -8372,10 +8372,10 @@
         <v>44230.55208333334</v>
       </c>
       <c r="C249" s="5" t="n">
-        <v>21.31</v>
+        <v>28.78</v>
       </c>
       <c r="D249" s="5" t="n">
-        <v>-0.21</v>
+        <v>-0.34</v>
       </c>
       <c r="E249" s="6" t="n">
         <v>10</v>
@@ -8404,10 +8404,10 @@
         <v>44230.5625</v>
       </c>
       <c r="C250" s="5" t="n">
-        <v>21.09</v>
+        <v>28.43</v>
       </c>
       <c r="D250" s="5" t="n">
-        <v>-0.21</v>
+        <v>-0.34</v>
       </c>
       <c r="E250" s="6" t="n">
         <v>10</v>
@@ -8436,10 +8436,10 @@
         <v>44230.57291666666</v>
       </c>
       <c r="C251" s="5" t="n">
-        <v>20.87</v>
+        <v>28.08</v>
       </c>
       <c r="D251" s="5" t="n">
-        <v>-0.21</v>
+        <v>-0.34</v>
       </c>
       <c r="E251" s="6" t="n">
         <v>10</v>
@@ -8468,10 +8468,10 @@
         <v>44230.58333333334</v>
       </c>
       <c r="C252" s="5" t="n">
-        <v>20.65</v>
+        <v>27.82</v>
       </c>
       <c r="D252" s="5" t="n">
-        <v>-0.21</v>
+        <v>-0.25</v>
       </c>
       <c r="E252" s="6" t="n">
         <v>9.867000000000001</v>
@@ -8500,10 +8500,10 @@
         <v>44230.59375</v>
       </c>
       <c r="C253" s="5" t="n">
-        <v>20.51</v>
+        <v>27.64</v>
       </c>
       <c r="D253" s="5" t="n">
-        <v>-0.13</v>
+        <v>-0.17</v>
       </c>
       <c r="E253" s="6" t="n">
         <v>6</v>
@@ -8532,10 +8532,10 @@
         <v>44230.60416666666</v>
       </c>
       <c r="C254" s="5" t="n">
-        <v>20.37</v>
+        <v>27.46</v>
       </c>
       <c r="D254" s="5" t="n">
-        <v>-0.13</v>
+        <v>-0.17</v>
       </c>
       <c r="E254" s="6" t="n">
         <v>6</v>
@@ -8564,10 +8564,10 @@
         <v>44230.61458333334</v>
       </c>
       <c r="C255" s="5" t="n">
-        <v>20.23</v>
+        <v>27.28</v>
       </c>
       <c r="D255" s="5" t="n">
-        <v>-0.13</v>
+        <v>-0.17</v>
       </c>
       <c r="E255" s="6" t="n">
         <v>6</v>
@@ -8596,10 +8596,10 @@
         <v>44230.625</v>
       </c>
       <c r="C256" s="5" t="n">
-        <v>20.09</v>
+        <v>27.1</v>
       </c>
       <c r="D256" s="5" t="n">
-        <v>-0.13</v>
+        <v>-0.17</v>
       </c>
       <c r="E256" s="6" t="n">
         <v>5.867</v>
@@ -8628,10 +8628,10 @@
         <v>44230.63541666666</v>
       </c>
       <c r="C257" s="5" t="n">
-        <v>20.03</v>
+        <v>27.03</v>
       </c>
       <c r="D257" s="5" t="n">
-        <v>-0.05</v>
+        <v>-0.06</v>
       </c>
       <c r="E257" s="6" t="n">
         <v>2</v>
@@ -8660,10 +8660,10 @@
         <v>44230.64583333334</v>
       </c>
       <c r="C258" s="5" t="n">
-        <v>19.97</v>
+        <v>26.96</v>
       </c>
       <c r="D258" s="5" t="n">
-        <v>-0.05</v>
+        <v>-0.06</v>
       </c>
       <c r="E258" s="6" t="n">
         <v>2</v>
@@ -8692,10 +8692,10 @@
         <v>44230.65625</v>
       </c>
       <c r="C259" s="5" t="n">
-        <v>19.91</v>
+        <v>26.89</v>
       </c>
       <c r="D259" s="5" t="n">
-        <v>-0.05</v>
+        <v>-0.06</v>
       </c>
       <c r="E259" s="6" t="n">
         <v>2</v>
@@ -8724,10 +8724,10 @@
         <v>44230.66666666666</v>
       </c>
       <c r="C260" s="5" t="n">
-        <v>19.83</v>
+        <v>26.8</v>
       </c>
       <c r="D260" s="5" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.09</v>
       </c>
       <c r="E260" s="6" t="n">
         <v>1.933</v>
@@ -8756,7 +8756,7 @@
         <v>44230.67708333334</v>
       </c>
       <c r="C261" s="5" t="n">
-        <v>19.83</v>
+        <v>26.8</v>
       </c>
       <c r="D261" s="5" t="n">
         <v>0</v>
@@ -8788,7 +8788,7 @@
         <v>44230.6875</v>
       </c>
       <c r="C262" s="5" t="n">
-        <v>19.83</v>
+        <v>26.8</v>
       </c>
       <c r="D262" s="5" t="n">
         <v>0</v>
@@ -8820,7 +8820,7 @@
         <v>44230.69791666666</v>
       </c>
       <c r="C263" s="5" t="n">
-        <v>19.83</v>
+        <v>26.8</v>
       </c>
       <c r="D263" s="5" t="n">
         <v>0</v>
@@ -8852,7 +8852,7 @@
         <v>44230.70833333334</v>
       </c>
       <c r="C264" s="5" t="n">
-        <v>19.83</v>
+        <v>26.8</v>
       </c>
       <c r="D264" s="5" t="n">
         <v>0</v>
@@ -8884,7 +8884,7 @@
         <v>44230.71875</v>
       </c>
       <c r="C265" s="5" t="n">
-        <v>20.06</v>
+        <v>27.02</v>
       </c>
       <c r="D265" s="5" t="n">
         <v>0.22</v>
@@ -8916,7 +8916,7 @@
         <v>44230.72916666666</v>
       </c>
       <c r="C266" s="5" t="n">
-        <v>20.28</v>
+        <v>27.25</v>
       </c>
       <c r="D266" s="5" t="n">
         <v>0.22</v>
@@ -8948,7 +8948,7 @@
         <v>44230.73958333334</v>
       </c>
       <c r="C267" s="5" t="n">
-        <v>20.51</v>
+        <v>27.47</v>
       </c>
       <c r="D267" s="5" t="n">
         <v>0.22</v>
@@ -8980,7 +8980,7 @@
         <v>44230.75</v>
       </c>
       <c r="C268" s="5" t="n">
-        <v>20.73</v>
+        <v>27.7</v>
       </c>
       <c r="D268" s="5" t="n">
         <v>0.22</v>
@@ -9012,7 +9012,7 @@
         <v>44230.76041666666</v>
       </c>
       <c r="C269" s="5" t="n">
-        <v>20.96</v>
+        <v>27.92</v>
       </c>
       <c r="D269" s="5" t="n">
         <v>0.22</v>
@@ -9044,7 +9044,7 @@
         <v>44230.77083333334</v>
       </c>
       <c r="C270" s="5" t="n">
-        <v>21.18</v>
+        <v>28.15</v>
       </c>
       <c r="D270" s="5" t="n">
         <v>0.22</v>
@@ -9076,7 +9076,7 @@
         <v>44230.78125</v>
       </c>
       <c r="C271" s="5" t="n">
-        <v>21.41</v>
+        <v>28.37</v>
       </c>
       <c r="D271" s="5" t="n">
         <v>0.22</v>
@@ -9108,7 +9108,7 @@
         <v>44230.79166666666</v>
       </c>
       <c r="C272" s="5" t="n">
-        <v>21.63</v>
+        <v>28.6</v>
       </c>
       <c r="D272" s="5" t="n">
         <v>0.22</v>
@@ -9140,7 +9140,7 @@
         <v>44230.80208333334</v>
       </c>
       <c r="C273" s="5" t="n">
-        <v>21.93</v>
+        <v>28.9</v>
       </c>
       <c r="D273" s="5" t="n">
         <v>0.29</v>
@@ -9172,7 +9172,7 @@
         <v>44230.8125</v>
       </c>
       <c r="C274" s="5" t="n">
-        <v>22.23</v>
+        <v>29.2</v>
       </c>
       <c r="D274" s="5" t="n">
         <v>0.29</v>
@@ -9204,7 +9204,7 @@
         <v>44230.82291666666</v>
       </c>
       <c r="C275" s="5" t="n">
-        <v>22.53</v>
+        <v>29.5</v>
       </c>
       <c r="D275" s="5" t="n">
         <v>0.29</v>
@@ -9236,7 +9236,7 @@
         <v>44230.83333333334</v>
       </c>
       <c r="C276" s="5" t="n">
-        <v>22.83</v>
+        <v>29.8</v>
       </c>
       <c r="D276" s="5" t="n">
         <v>0.29</v>
@@ -9268,7 +9268,7 @@
         <v>44230.84375</v>
       </c>
       <c r="C277" s="5" t="n">
-        <v>23.13</v>
+        <v>30.1</v>
       </c>
       <c r="D277" s="5" t="n">
         <v>0.29</v>
@@ -9300,7 +9300,7 @@
         <v>44230.85416666666</v>
       </c>
       <c r="C278" s="5" t="n">
-        <v>23.43</v>
+        <v>30.4</v>
       </c>
       <c r="D278" s="5" t="n">
         <v>0.29</v>
@@ -9332,7 +9332,7 @@
         <v>44230.86458333334</v>
       </c>
       <c r="C279" s="5" t="n">
-        <v>23.73</v>
+        <v>30.7</v>
       </c>
       <c r="D279" s="5" t="n">
         <v>0.29</v>
@@ -9364,7 +9364,7 @@
         <v>44230.875</v>
       </c>
       <c r="C280" s="5" t="n">
-        <v>24.03</v>
+        <v>31</v>
       </c>
       <c r="D280" s="5" t="n">
         <v>0.29</v>
@@ -9396,7 +9396,7 @@
         <v>44230.88541666666</v>
       </c>
       <c r="C281" s="5" t="n">
-        <v>24.33</v>
+        <v>31.3</v>
       </c>
       <c r="D281" s="5" t="n">
         <v>0.29</v>
@@ -9428,7 +9428,7 @@
         <v>44230.89583333334</v>
       </c>
       <c r="C282" s="5" t="n">
-        <v>24.63</v>
+        <v>31.6</v>
       </c>
       <c r="D282" s="5" t="n">
         <v>0.29</v>
@@ -9460,7 +9460,7 @@
         <v>44230.90625</v>
       </c>
       <c r="C283" s="5" t="n">
-        <v>24.93</v>
+        <v>31.9</v>
       </c>
       <c r="D283" s="5" t="n">
         <v>0.29</v>
@@ -9492,7 +9492,7 @@
         <v>44230.91666666666</v>
       </c>
       <c r="C284" s="5" t="n">
-        <v>25.03</v>
+        <v>32</v>
       </c>
       <c r="D284" s="5" t="n">
         <v>0.09</v>
@@ -9524,7 +9524,7 @@
         <v>44230.92708333334</v>
       </c>
       <c r="C285" s="5" t="n">
-        <v>25.11</v>
+        <v>32.07</v>
       </c>
       <c r="D285" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -9556,7 +9556,7 @@
         <v>44230.9375</v>
       </c>
       <c r="C286" s="5" t="n">
-        <v>25.18</v>
+        <v>32.15</v>
       </c>
       <c r="D286" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -9588,7 +9588,7 @@
         <v>44230.94791666666</v>
       </c>
       <c r="C287" s="5" t="n">
-        <v>25.26</v>
+        <v>32.22</v>
       </c>
       <c r="D287" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -9620,7 +9620,7 @@
         <v>44230.95833333334</v>
       </c>
       <c r="C288" s="5" t="n">
-        <v>25.33</v>
+        <v>32.3</v>
       </c>
       <c r="D288" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -9652,7 +9652,7 @@
         <v>44230.96875</v>
       </c>
       <c r="C289" s="5" t="n">
-        <v>25.38</v>
+        <v>32.35</v>
       </c>
       <c r="D289" s="5" t="n">
         <v>0.04</v>
@@ -9684,7 +9684,7 @@
         <v>44230.97916666666</v>
       </c>
       <c r="C290" s="5" t="n">
-        <v>25.43</v>
+        <v>32.4</v>
       </c>
       <c r="D290" s="5" t="n">
         <v>0.04</v>
@@ -9716,7 +9716,7 @@
         <v>44230.98958333334</v>
       </c>
       <c r="C291" s="5" t="n">
-        <v>25.48</v>
+        <v>32.45</v>
       </c>
       <c r="D291" s="5" t="n">
         <v>0.04</v>
@@ -9843,7 +9843,7 @@
         <v>44228</v>
       </c>
       <c r="C4" s="5" t="n">
-        <v>15.18</v>
+        <v>25.48</v>
       </c>
       <c r="D4" s="5" t="n">
         <v>0</v>
@@ -9875,7 +9875,7 @@
         <v>44228.01041666666</v>
       </c>
       <c r="C5" s="5" t="n">
-        <v>15.21</v>
+        <v>25.51</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0.02</v>
@@ -9907,7 +9907,7 @@
         <v>44228.02083333334</v>
       </c>
       <c r="C6" s="5" t="n">
-        <v>15.23</v>
+        <v>25.53</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>0.02</v>
@@ -9939,7 +9939,7 @@
         <v>44228.03125</v>
       </c>
       <c r="C7" s="5" t="n">
-        <v>15.26</v>
+        <v>25.56</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.02</v>
@@ -9971,7 +9971,7 @@
         <v>44228.04166666666</v>
       </c>
       <c r="C8" s="5" t="n">
-        <v>15.28</v>
+        <v>25.58</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>0.02</v>
@@ -10003,7 +10003,7 @@
         <v>44228.05208333334</v>
       </c>
       <c r="C9" s="5" t="n">
-        <v>15.31</v>
+        <v>25.61</v>
       </c>
       <c r="D9" s="5" t="n">
         <v>0.02</v>
@@ -10035,7 +10035,7 @@
         <v>44228.0625</v>
       </c>
       <c r="C10" s="5" t="n">
-        <v>15.33</v>
+        <v>25.63</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.02</v>
@@ -10067,7 +10067,7 @@
         <v>44228.07291666666</v>
       </c>
       <c r="C11" s="5" t="n">
-        <v>15.36</v>
+        <v>25.66</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0.02</v>
@@ -10099,7 +10099,7 @@
         <v>44228.08333333334</v>
       </c>
       <c r="C12" s="5" t="n">
-        <v>15.38</v>
+        <v>25.68</v>
       </c>
       <c r="D12" s="5" t="n">
         <v>0.02</v>
@@ -10131,7 +10131,7 @@
         <v>44228.09375</v>
       </c>
       <c r="C13" s="5" t="n">
-        <v>15.41</v>
+        <v>25.71</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.02</v>
@@ -10163,7 +10163,7 @@
         <v>44228.10416666666</v>
       </c>
       <c r="C14" s="5" t="n">
-        <v>15.43</v>
+        <v>25.73</v>
       </c>
       <c r="D14" s="5" t="n">
         <v>0.02</v>
@@ -10195,7 +10195,7 @@
         <v>44228.11458333334</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>15.46</v>
+        <v>25.76</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>0.02</v>
@@ -10227,7 +10227,7 @@
         <v>44228.125</v>
       </c>
       <c r="C16" s="5" t="n">
-        <v>15.48</v>
+        <v>25.78</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.02</v>
@@ -10259,7 +10259,7 @@
         <v>44228.13541666666</v>
       </c>
       <c r="C17" s="5" t="n">
-        <v>15.51</v>
+        <v>25.81</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>0.02</v>
@@ -10291,7 +10291,7 @@
         <v>44228.14583333334</v>
       </c>
       <c r="C18" s="5" t="n">
-        <v>15.53</v>
+        <v>25.83</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>0.02</v>
@@ -10323,7 +10323,7 @@
         <v>44228.15625</v>
       </c>
       <c r="C19" s="5" t="n">
-        <v>15.56</v>
+        <v>25.86</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>0.02</v>
@@ -10355,7 +10355,7 @@
         <v>44228.16666666666</v>
       </c>
       <c r="C20" s="5" t="n">
-        <v>15.58</v>
+        <v>25.88</v>
       </c>
       <c r="D20" s="5" t="n">
         <v>0.02</v>
@@ -10387,7 +10387,7 @@
         <v>44228.17708333334</v>
       </c>
       <c r="C21" s="5" t="n">
-        <v>15.61</v>
+        <v>25.91</v>
       </c>
       <c r="D21" s="5" t="n">
         <v>0.02</v>
@@ -10419,7 +10419,7 @@
         <v>44228.1875</v>
       </c>
       <c r="C22" s="5" t="n">
-        <v>15.63</v>
+        <v>25.93</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>0.02</v>
@@ -10451,7 +10451,7 @@
         <v>44228.19791666666</v>
       </c>
       <c r="C23" s="5" t="n">
-        <v>15.66</v>
+        <v>25.96</v>
       </c>
       <c r="D23" s="5" t="n">
         <v>0.02</v>
@@ -10483,7 +10483,7 @@
         <v>44228.20833333334</v>
       </c>
       <c r="C24" s="5" t="n">
-        <v>15.68</v>
+        <v>25.98</v>
       </c>
       <c r="D24" s="5" t="n">
         <v>0.02</v>
@@ -10515,7 +10515,7 @@
         <v>44228.21875</v>
       </c>
       <c r="C25" s="5" t="n">
-        <v>15.76</v>
+        <v>26.06</v>
       </c>
       <c r="D25" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -10547,7 +10547,7 @@
         <v>44228.22916666666</v>
       </c>
       <c r="C26" s="5" t="n">
-        <v>15.83</v>
+        <v>26.13</v>
       </c>
       <c r="D26" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -10579,7 +10579,7 @@
         <v>44228.23958333334</v>
       </c>
       <c r="C27" s="5" t="n">
-        <v>15.91</v>
+        <v>26.21</v>
       </c>
       <c r="D27" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -10611,7 +10611,7 @@
         <v>44228.25</v>
       </c>
       <c r="C28" s="5" t="n">
-        <v>16.13</v>
+        <v>26.43</v>
       </c>
       <c r="D28" s="5" t="n">
         <v>0.22</v>
@@ -10643,7 +10643,7 @@
         <v>44228.26041666666</v>
       </c>
       <c r="C29" s="5" t="n">
-        <v>16.43</v>
+        <v>26.73</v>
       </c>
       <c r="D29" s="5" t="n">
         <v>0.29</v>
@@ -10675,7 +10675,7 @@
         <v>44228.27083333334</v>
       </c>
       <c r="C30" s="5" t="n">
-        <v>16.73</v>
+        <v>27.03</v>
       </c>
       <c r="D30" s="5" t="n">
         <v>0.29</v>
@@ -10707,7 +10707,7 @@
         <v>44228.28125</v>
       </c>
       <c r="C31" s="5" t="n">
-        <v>17.03</v>
+        <v>27.33</v>
       </c>
       <c r="D31" s="5" t="n">
         <v>0.29</v>
@@ -10739,7 +10739,7 @@
         <v>44228.29166666666</v>
       </c>
       <c r="C32" s="5" t="n">
-        <v>17.33</v>
+        <v>27.63</v>
       </c>
       <c r="D32" s="5" t="n">
         <v>0.29</v>
@@ -10771,7 +10771,7 @@
         <v>44228.30208333334</v>
       </c>
       <c r="C33" s="5" t="n">
-        <v>17.63</v>
+        <v>27.93</v>
       </c>
       <c r="D33" s="5" t="n">
         <v>0.29</v>
@@ -10803,7 +10803,7 @@
         <v>44228.3125</v>
       </c>
       <c r="C34" s="5" t="n">
-        <v>17.93</v>
+        <v>28.23</v>
       </c>
       <c r="D34" s="5" t="n">
         <v>0.29</v>
@@ -10835,7 +10835,7 @@
         <v>44228.32291666666</v>
       </c>
       <c r="C35" s="5" t="n">
-        <v>18.23</v>
+        <v>28.53</v>
       </c>
       <c r="D35" s="5" t="n">
         <v>0.29</v>
@@ -10867,7 +10867,7 @@
         <v>44228.33333333334</v>
       </c>
       <c r="C36" s="5" t="n">
-        <v>18.53</v>
+        <v>28.83</v>
       </c>
       <c r="D36" s="5" t="n">
         <v>0.29</v>
@@ -10899,7 +10899,7 @@
         <v>44228.34375</v>
       </c>
       <c r="C37" s="5" t="n">
-        <v>18.53</v>
+        <v>28.83</v>
       </c>
       <c r="D37" s="5" t="n">
         <v>0</v>
@@ -10931,7 +10931,7 @@
         <v>44228.35416666666</v>
       </c>
       <c r="C38" s="5" t="n">
-        <v>18.53</v>
+        <v>28.83</v>
       </c>
       <c r="D38" s="5" t="n">
         <v>0</v>
@@ -10963,7 +10963,7 @@
         <v>44228.36458333334</v>
       </c>
       <c r="C39" s="5" t="n">
-        <v>18.53</v>
+        <v>28.83</v>
       </c>
       <c r="D39" s="5" t="n">
         <v>0</v>
@@ -10995,7 +10995,7 @@
         <v>44228.375</v>
       </c>
       <c r="C40" s="5" t="n">
-        <v>18.53</v>
+        <v>28.83</v>
       </c>
       <c r="D40" s="5" t="n">
         <v>0</v>
@@ -11027,7 +11027,7 @@
         <v>44228.38541666666</v>
       </c>
       <c r="C41" s="5" t="n">
-        <v>18.44</v>
+        <v>28.74</v>
       </c>
       <c r="D41" s="5" t="n">
         <v>-0.09</v>
@@ -11059,7 +11059,7 @@
         <v>44228.39583333334</v>
       </c>
       <c r="C42" s="5" t="n">
-        <v>18.34</v>
+        <v>28.64</v>
       </c>
       <c r="D42" s="5" t="n">
         <v>-0.09</v>
@@ -11091,7 +11091,7 @@
         <v>44228.40625</v>
       </c>
       <c r="C43" s="5" t="n">
-        <v>18.25</v>
+        <v>28.55</v>
       </c>
       <c r="D43" s="5" t="n">
         <v>-0.09</v>
@@ -11123,7 +11123,7 @@
         <v>44228.41666666666</v>
       </c>
       <c r="C44" s="5" t="n">
-        <v>18.15</v>
+        <v>28.45</v>
       </c>
       <c r="D44" s="5" t="n">
         <v>-0.09</v>
@@ -11155,7 +11155,7 @@
         <v>44228.42708333334</v>
       </c>
       <c r="C45" s="5" t="n">
-        <v>17.87</v>
+        <v>28.17</v>
       </c>
       <c r="D45" s="5" t="n">
         <v>-0.28</v>
@@ -11187,7 +11187,7 @@
         <v>44228.4375</v>
       </c>
       <c r="C46" s="5" t="n">
-        <v>17.58</v>
+        <v>27.88</v>
       </c>
       <c r="D46" s="5" t="n">
         <v>-0.28</v>
@@ -11219,7 +11219,7 @@
         <v>44228.44791666666</v>
       </c>
       <c r="C47" s="5" t="n">
-        <v>17.3</v>
+        <v>27.6</v>
       </c>
       <c r="D47" s="5" t="n">
         <v>-0.28</v>
@@ -11251,7 +11251,7 @@
         <v>44228.45833333334</v>
       </c>
       <c r="C48" s="5" t="n">
-        <v>17.01</v>
+        <v>27.31</v>
       </c>
       <c r="D48" s="5" t="n">
         <v>-0.28</v>
@@ -11283,7 +11283,7 @@
         <v>44228.46875</v>
       </c>
       <c r="C49" s="5" t="n">
-        <v>16.65</v>
+        <v>26.95</v>
       </c>
       <c r="D49" s="5" t="n">
         <v>-0.36</v>
@@ -11315,7 +11315,7 @@
         <v>44228.47916666666</v>
       </c>
       <c r="C50" s="5" t="n">
-        <v>16.17</v>
+        <v>26.47</v>
       </c>
       <c r="D50" s="5" t="n">
         <v>-0.47</v>
@@ -11347,7 +11347,7 @@
         <v>44228.48958333334</v>
       </c>
       <c r="C51" s="5" t="n">
-        <v>15.7</v>
+        <v>26</v>
       </c>
       <c r="D51" s="5" t="n">
         <v>-0.47</v>
@@ -11379,7 +11379,7 @@
         <v>44228.5</v>
       </c>
       <c r="C52" s="5" t="n">
-        <v>15.35</v>
+        <v>25.65</v>
       </c>
       <c r="D52" s="5" t="n">
         <v>-0.34</v>
@@ -11411,7 +11411,7 @@
         <v>44228.51041666666</v>
       </c>
       <c r="C53" s="5" t="n">
-        <v>15.04</v>
+        <v>25.34</v>
       </c>
       <c r="D53" s="5" t="n">
         <v>-0.3</v>
@@ -11443,7 +11443,7 @@
         <v>44228.52083333334</v>
       </c>
       <c r="C54" s="5" t="n">
-        <v>14.74</v>
+        <v>25.04</v>
       </c>
       <c r="D54" s="5" t="n">
         <v>-0.3</v>
@@ -11475,7 +11475,7 @@
         <v>44228.53125</v>
       </c>
       <c r="C55" s="5" t="n">
-        <v>14.45</v>
+        <v>24.75</v>
       </c>
       <c r="D55" s="5" t="n">
         <v>-0.29</v>
@@ -11507,7 +11507,7 @@
         <v>44228.54166666666</v>
       </c>
       <c r="C56" s="5" t="n">
-        <v>14.15</v>
+        <v>24.46</v>
       </c>
       <c r="D56" s="5" t="n">
         <v>-0.29</v>
@@ -11539,7 +11539,7 @@
         <v>44228.55208333334</v>
       </c>
       <c r="C57" s="5" t="n">
-        <v>13.8</v>
+        <v>24.11</v>
       </c>
       <c r="D57" s="5" t="n">
         <v>-0.34</v>
@@ -11571,7 +11571,7 @@
         <v>44228.5625</v>
       </c>
       <c r="C58" s="5" t="n">
-        <v>13.45</v>
+        <v>23.76</v>
       </c>
       <c r="D58" s="5" t="n">
         <v>-0.34</v>
@@ -11603,7 +11603,7 @@
         <v>44228.57291666666</v>
       </c>
       <c r="C59" s="5" t="n">
-        <v>13.1</v>
+        <v>23.41</v>
       </c>
       <c r="D59" s="5" t="n">
         <v>-0.34</v>
@@ -11635,10 +11635,10 @@
         <v>44228.58333333334</v>
       </c>
       <c r="C60" s="5" t="n">
-        <v>12.88</v>
+        <v>23.15</v>
       </c>
       <c r="D60" s="5" t="n">
-        <v>-0.21</v>
+        <v>-0.25</v>
       </c>
       <c r="E60" s="6" t="n">
         <v>0</v>
@@ -11667,10 +11667,10 @@
         <v>44228.59375</v>
       </c>
       <c r="C61" s="5" t="n">
-        <v>12.74</v>
+        <v>22.97</v>
       </c>
       <c r="D61" s="5" t="n">
-        <v>-0.13</v>
+        <v>-0.17</v>
       </c>
       <c r="E61" s="6" t="n">
         <v>0</v>
@@ -11699,10 +11699,10 @@
         <v>44228.60416666666</v>
       </c>
       <c r="C62" s="5" t="n">
-        <v>12.6</v>
+        <v>22.79</v>
       </c>
       <c r="D62" s="5" t="n">
-        <v>-0.13</v>
+        <v>-0.17</v>
       </c>
       <c r="E62" s="6" t="n">
         <v>0</v>
@@ -11731,10 +11731,10 @@
         <v>44228.61458333334</v>
       </c>
       <c r="C63" s="5" t="n">
-        <v>12.46</v>
+        <v>22.61</v>
       </c>
       <c r="D63" s="5" t="n">
-        <v>-0.13</v>
+        <v>-0.17</v>
       </c>
       <c r="E63" s="6" t="n">
         <v>0</v>
@@ -11763,10 +11763,10 @@
         <v>44228.625</v>
       </c>
       <c r="C64" s="5" t="n">
-        <v>12.32</v>
+        <v>22.43</v>
       </c>
       <c r="D64" s="5" t="n">
-        <v>-0.13</v>
+        <v>-0.17</v>
       </c>
       <c r="E64" s="6" t="n">
         <v>0</v>
@@ -11795,10 +11795,10 @@
         <v>44228.63541666666</v>
       </c>
       <c r="C65" s="5" t="n">
-        <v>12.26</v>
+        <v>22.36</v>
       </c>
       <c r="D65" s="5" t="n">
-        <v>-0.05</v>
+        <v>-0.06</v>
       </c>
       <c r="E65" s="6" t="n">
         <v>0</v>
@@ -11827,10 +11827,10 @@
         <v>44228.64583333334</v>
       </c>
       <c r="C66" s="5" t="n">
-        <v>12.2</v>
+        <v>22.29</v>
       </c>
       <c r="D66" s="5" t="n">
-        <v>-0.05</v>
+        <v>-0.06</v>
       </c>
       <c r="E66" s="6" t="n">
         <v>0</v>
@@ -11859,10 +11859,10 @@
         <v>44228.65625</v>
       </c>
       <c r="C67" s="5" t="n">
-        <v>12.14</v>
+        <v>22.22</v>
       </c>
       <c r="D67" s="5" t="n">
-        <v>-0.05</v>
+        <v>-0.06</v>
       </c>
       <c r="E67" s="6" t="n">
         <v>0</v>
@@ -11891,10 +11891,10 @@
         <v>44228.66666666666</v>
       </c>
       <c r="C68" s="5" t="n">
-        <v>12.07</v>
+        <v>22.12</v>
       </c>
       <c r="D68" s="5" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.09</v>
       </c>
       <c r="E68" s="6" t="n">
         <v>0</v>
@@ -11923,7 +11923,7 @@
         <v>44228.67708333334</v>
       </c>
       <c r="C69" s="5" t="n">
-        <v>12.07</v>
+        <v>22.12</v>
       </c>
       <c r="D69" s="5" t="n">
         <v>0</v>
@@ -11955,7 +11955,7 @@
         <v>44228.6875</v>
       </c>
       <c r="C70" s="5" t="n">
-        <v>12.07</v>
+        <v>22.12</v>
       </c>
       <c r="D70" s="5" t="n">
         <v>0</v>
@@ -11987,7 +11987,7 @@
         <v>44228.69791666666</v>
       </c>
       <c r="C71" s="5" t="n">
-        <v>12.07</v>
+        <v>22.12</v>
       </c>
       <c r="D71" s="5" t="n">
         <v>0</v>
@@ -12019,7 +12019,7 @@
         <v>44228.70833333334</v>
       </c>
       <c r="C72" s="5" t="n">
-        <v>12.07</v>
+        <v>22.12</v>
       </c>
       <c r="D72" s="5" t="n">
         <v>0</v>
@@ -12051,7 +12051,7 @@
         <v>44228.71875</v>
       </c>
       <c r="C73" s="5" t="n">
-        <v>12.29</v>
+        <v>22.35</v>
       </c>
       <c r="D73" s="5" t="n">
         <v>0.22</v>
@@ -12083,7 +12083,7 @@
         <v>44228.72916666666</v>
       </c>
       <c r="C74" s="5" t="n">
-        <v>12.52</v>
+        <v>22.57</v>
       </c>
       <c r="D74" s="5" t="n">
         <v>0.22</v>
@@ -12115,7 +12115,7 @@
         <v>44228.73958333334</v>
       </c>
       <c r="C75" s="5" t="n">
-        <v>12.74</v>
+        <v>22.8</v>
       </c>
       <c r="D75" s="5" t="n">
         <v>0.22</v>
@@ -12147,7 +12147,7 @@
         <v>44228.75</v>
       </c>
       <c r="C76" s="5" t="n">
-        <v>12.97</v>
+        <v>23.02</v>
       </c>
       <c r="D76" s="5" t="n">
         <v>0.22</v>
@@ -12179,7 +12179,7 @@
         <v>44228.76041666666</v>
       </c>
       <c r="C77" s="5" t="n">
-        <v>13.19</v>
+        <v>23.25</v>
       </c>
       <c r="D77" s="5" t="n">
         <v>0.22</v>
@@ -12211,7 +12211,7 @@
         <v>44228.77083333334</v>
       </c>
       <c r="C78" s="5" t="n">
-        <v>13.42</v>
+        <v>23.47</v>
       </c>
       <c r="D78" s="5" t="n">
         <v>0.22</v>
@@ -12243,7 +12243,7 @@
         <v>44228.78125</v>
       </c>
       <c r="C79" s="5" t="n">
-        <v>13.64</v>
+        <v>23.7</v>
       </c>
       <c r="D79" s="5" t="n">
         <v>0.22</v>
@@ -12275,7 +12275,7 @@
         <v>44228.79166666666</v>
       </c>
       <c r="C80" s="5" t="n">
-        <v>13.87</v>
+        <v>23.92</v>
       </c>
       <c r="D80" s="5" t="n">
         <v>0.22</v>
@@ -12307,7 +12307,7 @@
         <v>44228.80208333334</v>
       </c>
       <c r="C81" s="5" t="n">
-        <v>14.17</v>
+        <v>24.22</v>
       </c>
       <c r="D81" s="5" t="n">
         <v>0.29</v>
@@ -12339,7 +12339,7 @@
         <v>44228.8125</v>
       </c>
       <c r="C82" s="5" t="n">
-        <v>14.47</v>
+        <v>24.52</v>
       </c>
       <c r="D82" s="5" t="n">
         <v>0.29</v>
@@ -12371,7 +12371,7 @@
         <v>44228.82291666666</v>
       </c>
       <c r="C83" s="5" t="n">
-        <v>14.77</v>
+        <v>24.82</v>
       </c>
       <c r="D83" s="5" t="n">
         <v>0.29</v>
@@ -12403,7 +12403,7 @@
         <v>44228.83333333334</v>
       </c>
       <c r="C84" s="5" t="n">
-        <v>15.07</v>
+        <v>25.12</v>
       </c>
       <c r="D84" s="5" t="n">
         <v>0.29</v>
@@ -12435,7 +12435,7 @@
         <v>44228.84375</v>
       </c>
       <c r="C85" s="5" t="n">
-        <v>15.37</v>
+        <v>25.42</v>
       </c>
       <c r="D85" s="5" t="n">
         <v>0.29</v>
@@ -12467,7 +12467,7 @@
         <v>44228.85416666666</v>
       </c>
       <c r="C86" s="5" t="n">
-        <v>15.67</v>
+        <v>25.72</v>
       </c>
       <c r="D86" s="5" t="n">
         <v>0.29</v>
@@ -12499,7 +12499,7 @@
         <v>44228.86458333334</v>
       </c>
       <c r="C87" s="5" t="n">
-        <v>15.97</v>
+        <v>26.02</v>
       </c>
       <c r="D87" s="5" t="n">
         <v>0.29</v>
@@ -12531,7 +12531,7 @@
         <v>44228.875</v>
       </c>
       <c r="C88" s="5" t="n">
-        <v>16.27</v>
+        <v>26.32</v>
       </c>
       <c r="D88" s="5" t="n">
         <v>0.29</v>
@@ -12563,7 +12563,7 @@
         <v>44228.88541666666</v>
       </c>
       <c r="C89" s="5" t="n">
-        <v>16.57</v>
+        <v>26.62</v>
       </c>
       <c r="D89" s="5" t="n">
         <v>0.29</v>
@@ -12595,7 +12595,7 @@
         <v>44228.89583333334</v>
       </c>
       <c r="C90" s="5" t="n">
-        <v>16.87</v>
+        <v>26.92</v>
       </c>
       <c r="D90" s="5" t="n">
         <v>0.29</v>
@@ -12627,7 +12627,7 @@
         <v>44228.90625</v>
       </c>
       <c r="C91" s="5" t="n">
-        <v>17.17</v>
+        <v>27.22</v>
       </c>
       <c r="D91" s="5" t="n">
         <v>0.29</v>
@@ -12659,7 +12659,7 @@
         <v>44228.91666666666</v>
       </c>
       <c r="C92" s="5" t="n">
-        <v>17.27</v>
+        <v>27.32</v>
       </c>
       <c r="D92" s="5" t="n">
         <v>0.09</v>
@@ -12691,7 +12691,7 @@
         <v>44228.92708333334</v>
       </c>
       <c r="C93" s="5" t="n">
-        <v>17.34</v>
+        <v>27.4</v>
       </c>
       <c r="D93" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -12723,7 +12723,7 @@
         <v>44228.9375</v>
       </c>
       <c r="C94" s="5" t="n">
-        <v>17.42</v>
+        <v>27.47</v>
       </c>
       <c r="D94" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -12755,7 +12755,7 @@
         <v>44228.94791666666</v>
       </c>
       <c r="C95" s="5" t="n">
-        <v>17.49</v>
+        <v>27.55</v>
       </c>
       <c r="D95" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -12787,7 +12787,7 @@
         <v>44228.95833333334</v>
       </c>
       <c r="C96" s="5" t="n">
-        <v>17.57</v>
+        <v>27.62</v>
       </c>
       <c r="D96" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -12819,7 +12819,7 @@
         <v>44228.96875</v>
       </c>
       <c r="C97" s="5" t="n">
-        <v>17.62</v>
+        <v>27.67</v>
       </c>
       <c r="D97" s="5" t="n">
         <v>0.04</v>
@@ -12851,7 +12851,7 @@
         <v>44228.97916666666</v>
       </c>
       <c r="C98" s="5" t="n">
-        <v>17.67</v>
+        <v>27.72</v>
       </c>
       <c r="D98" s="5" t="n">
         <v>0.04</v>
@@ -12883,7 +12883,7 @@
         <v>44228.98958333334</v>
       </c>
       <c r="C99" s="5" t="n">
-        <v>17.72</v>
+        <v>27.77</v>
       </c>
       <c r="D99" s="5" t="n">
         <v>0.04</v>
@@ -12915,7 +12915,7 @@
         <v>44229</v>
       </c>
       <c r="C100" s="5" t="n">
-        <v>17.77</v>
+        <v>27.82</v>
       </c>
       <c r="D100" s="5" t="n">
         <v>0.04</v>
@@ -12947,7 +12947,7 @@
         <v>44229.01041666666</v>
       </c>
       <c r="C101" s="5" t="n">
-        <v>17.79</v>
+        <v>27.85</v>
       </c>
       <c r="D101" s="5" t="n">
         <v>0.02</v>
@@ -12979,7 +12979,7 @@
         <v>44229.02083333334</v>
       </c>
       <c r="C102" s="5" t="n">
-        <v>17.82</v>
+        <v>27.87</v>
       </c>
       <c r="D102" s="5" t="n">
         <v>0.02</v>
@@ -13011,7 +13011,7 @@
         <v>44229.03125</v>
       </c>
       <c r="C103" s="5" t="n">
-        <v>17.84</v>
+        <v>27.9</v>
       </c>
       <c r="D103" s="5" t="n">
         <v>0.02</v>
@@ -13043,7 +13043,7 @@
         <v>44229.04166666666</v>
       </c>
       <c r="C104" s="5" t="n">
-        <v>17.87</v>
+        <v>27.92</v>
       </c>
       <c r="D104" s="5" t="n">
         <v>0.02</v>
@@ -13075,7 +13075,7 @@
         <v>44229.05208333334</v>
       </c>
       <c r="C105" s="5" t="n">
-        <v>17.89</v>
+        <v>27.95</v>
       </c>
       <c r="D105" s="5" t="n">
         <v>0.02</v>
@@ -13107,7 +13107,7 @@
         <v>44229.0625</v>
       </c>
       <c r="C106" s="5" t="n">
-        <v>17.92</v>
+        <v>27.97</v>
       </c>
       <c r="D106" s="5" t="n">
         <v>0.02</v>
@@ -13139,7 +13139,7 @@
         <v>44229.07291666666</v>
       </c>
       <c r="C107" s="5" t="n">
-        <v>17.94</v>
+        <v>28</v>
       </c>
       <c r="D107" s="5" t="n">
         <v>0.02</v>
@@ -13171,7 +13171,7 @@
         <v>44229.08333333334</v>
       </c>
       <c r="C108" s="5" t="n">
-        <v>17.97</v>
+        <v>28.02</v>
       </c>
       <c r="D108" s="5" t="n">
         <v>0.02</v>
@@ -13203,7 +13203,7 @@
         <v>44229.09375</v>
       </c>
       <c r="C109" s="5" t="n">
-        <v>17.99</v>
+        <v>28.05</v>
       </c>
       <c r="D109" s="5" t="n">
         <v>0.02</v>
@@ -13235,7 +13235,7 @@
         <v>44229.10416666666</v>
       </c>
       <c r="C110" s="5" t="n">
-        <v>18.02</v>
+        <v>28.07</v>
       </c>
       <c r="D110" s="5" t="n">
         <v>0.02</v>
@@ -13267,7 +13267,7 @@
         <v>44229.11458333334</v>
       </c>
       <c r="C111" s="5" t="n">
-        <v>18.04</v>
+        <v>28.1</v>
       </c>
       <c r="D111" s="5" t="n">
         <v>0.02</v>
@@ -13299,7 +13299,7 @@
         <v>44229.125</v>
       </c>
       <c r="C112" s="5" t="n">
-        <v>18.07</v>
+        <v>28.12</v>
       </c>
       <c r="D112" s="5" t="n">
         <v>0.02</v>
@@ -13331,7 +13331,7 @@
         <v>44229.13541666666</v>
       </c>
       <c r="C113" s="5" t="n">
-        <v>18.09</v>
+        <v>28.15</v>
       </c>
       <c r="D113" s="5" t="n">
         <v>0.02</v>
@@ -13363,7 +13363,7 @@
         <v>44229.14583333334</v>
       </c>
       <c r="C114" s="5" t="n">
-        <v>18.12</v>
+        <v>28.17</v>
       </c>
       <c r="D114" s="5" t="n">
         <v>0.02</v>
@@ -13395,7 +13395,7 @@
         <v>44229.15625</v>
       </c>
       <c r="C115" s="5" t="n">
-        <v>18.14</v>
+        <v>28.2</v>
       </c>
       <c r="D115" s="5" t="n">
         <v>0.02</v>
@@ -13427,7 +13427,7 @@
         <v>44229.16666666666</v>
       </c>
       <c r="C116" s="5" t="n">
-        <v>18.17</v>
+        <v>28.22</v>
       </c>
       <c r="D116" s="5" t="n">
         <v>0.02</v>
@@ -13459,7 +13459,7 @@
         <v>44229.17708333334</v>
       </c>
       <c r="C117" s="5" t="n">
-        <v>18.19</v>
+        <v>28.25</v>
       </c>
       <c r="D117" s="5" t="n">
         <v>0.02</v>
@@ -13491,7 +13491,7 @@
         <v>44229.1875</v>
       </c>
       <c r="C118" s="5" t="n">
-        <v>18.22</v>
+        <v>28.27</v>
       </c>
       <c r="D118" s="5" t="n">
         <v>0.02</v>
@@ -13523,7 +13523,7 @@
         <v>44229.19791666666</v>
       </c>
       <c r="C119" s="5" t="n">
-        <v>18.24</v>
+        <v>28.3</v>
       </c>
       <c r="D119" s="5" t="n">
         <v>0.02</v>
@@ -13555,7 +13555,7 @@
         <v>44229.20833333334</v>
       </c>
       <c r="C120" s="5" t="n">
-        <v>18.27</v>
+        <v>28.32</v>
       </c>
       <c r="D120" s="5" t="n">
         <v>0.02</v>
@@ -13587,7 +13587,7 @@
         <v>44229.21875</v>
       </c>
       <c r="C121" s="5" t="n">
-        <v>18.34</v>
+        <v>28.4</v>
       </c>
       <c r="D121" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -13619,7 +13619,7 @@
         <v>44229.22916666666</v>
       </c>
       <c r="C122" s="5" t="n">
-        <v>18.42</v>
+        <v>28.47</v>
       </c>
       <c r="D122" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -13651,7 +13651,7 @@
         <v>44229.23958333334</v>
       </c>
       <c r="C123" s="5" t="n">
-        <v>18.49</v>
+        <v>28.55</v>
       </c>
       <c r="D123" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -13683,7 +13683,7 @@
         <v>44229.25</v>
       </c>
       <c r="C124" s="5" t="n">
-        <v>18.72</v>
+        <v>28.77</v>
       </c>
       <c r="D124" s="5" t="n">
         <v>0.22</v>
@@ -13715,7 +13715,7 @@
         <v>44229.26041666666</v>
       </c>
       <c r="C125" s="5" t="n">
-        <v>19.02</v>
+        <v>29.07</v>
       </c>
       <c r="D125" s="5" t="n">
         <v>0.29</v>
@@ -13747,7 +13747,7 @@
         <v>44229.27083333334</v>
       </c>
       <c r="C126" s="5" t="n">
-        <v>19.32</v>
+        <v>29.37</v>
       </c>
       <c r="D126" s="5" t="n">
         <v>0.29</v>
@@ -13779,7 +13779,7 @@
         <v>44229.28125</v>
       </c>
       <c r="C127" s="5" t="n">
-        <v>19.62</v>
+        <v>29.67</v>
       </c>
       <c r="D127" s="5" t="n">
         <v>0.29</v>
@@ -13811,7 +13811,7 @@
         <v>44229.29166666666</v>
       </c>
       <c r="C128" s="5" t="n">
-        <v>19.92</v>
+        <v>29.97</v>
       </c>
       <c r="D128" s="5" t="n">
         <v>0.29</v>
@@ -13843,7 +13843,7 @@
         <v>44229.30208333334</v>
       </c>
       <c r="C129" s="5" t="n">
-        <v>20.22</v>
+        <v>30.27</v>
       </c>
       <c r="D129" s="5" t="n">
         <v>0.29</v>
@@ -13875,7 +13875,7 @@
         <v>44229.3125</v>
       </c>
       <c r="C130" s="5" t="n">
-        <v>20.52</v>
+        <v>30.57</v>
       </c>
       <c r="D130" s="5" t="n">
         <v>0.29</v>
@@ -13907,7 +13907,7 @@
         <v>44229.32291666666</v>
       </c>
       <c r="C131" s="5" t="n">
-        <v>20.82</v>
+        <v>30.87</v>
       </c>
       <c r="D131" s="5" t="n">
         <v>0.29</v>
@@ -13939,7 +13939,7 @@
         <v>44229.33333333334</v>
       </c>
       <c r="C132" s="5" t="n">
-        <v>21.12</v>
+        <v>31.17</v>
       </c>
       <c r="D132" s="5" t="n">
         <v>0.29</v>
@@ -13971,7 +13971,7 @@
         <v>44229.34375</v>
       </c>
       <c r="C133" s="5" t="n">
-        <v>21.12</v>
+        <v>31.17</v>
       </c>
       <c r="D133" s="5" t="n">
         <v>0</v>
@@ -14003,7 +14003,7 @@
         <v>44229.35416666666</v>
       </c>
       <c r="C134" s="5" t="n">
-        <v>21.12</v>
+        <v>31.17</v>
       </c>
       <c r="D134" s="5" t="n">
         <v>0</v>
@@ -14035,7 +14035,7 @@
         <v>44229.36458333334</v>
       </c>
       <c r="C135" s="5" t="n">
-        <v>21.12</v>
+        <v>31.17</v>
       </c>
       <c r="D135" s="5" t="n">
         <v>0</v>
@@ -14067,7 +14067,7 @@
         <v>44229.375</v>
       </c>
       <c r="C136" s="5" t="n">
-        <v>21.12</v>
+        <v>31.17</v>
       </c>
       <c r="D136" s="5" t="n">
         <v>0</v>
@@ -14099,10 +14099,10 @@
         <v>44229.38541666666</v>
       </c>
       <c r="C137" s="5" t="n">
-        <v>21.05</v>
+        <v>31.08</v>
       </c>
       <c r="D137" s="5" t="n">
-        <v>-0.06</v>
+        <v>-0.09</v>
       </c>
       <c r="E137" s="6" t="n">
         <v>0</v>
@@ -14131,7 +14131,7 @@
         <v>44229.39583333334</v>
       </c>
       <c r="C138" s="5" t="n">
-        <v>20.96</v>
+        <v>30.98</v>
       </c>
       <c r="D138" s="5" t="n">
         <v>-0.09</v>
@@ -14163,10 +14163,10 @@
         <v>44229.40625</v>
       </c>
       <c r="C139" s="5" t="n">
-        <v>20.89</v>
+        <v>30.89</v>
       </c>
       <c r="D139" s="5" t="n">
-        <v>-0.06</v>
+        <v>-0.09</v>
       </c>
       <c r="E139" s="6" t="n">
         <v>0</v>
@@ -14195,7 +14195,7 @@
         <v>44229.41666666666</v>
       </c>
       <c r="C140" s="5" t="n">
-        <v>20.8</v>
+        <v>30.79</v>
       </c>
       <c r="D140" s="5" t="n">
         <v>-0.09</v>
@@ -14227,10 +14227,10 @@
         <v>44229.42708333334</v>
       </c>
       <c r="C141" s="5" t="n">
-        <v>20.63</v>
+        <v>30.51</v>
       </c>
       <c r="D141" s="5" t="n">
-        <v>-0.16</v>
+        <v>-0.28</v>
       </c>
       <c r="E141" s="6" t="n">
         <v>0</v>
@@ -14259,10 +14259,10 @@
         <v>44229.4375</v>
       </c>
       <c r="C142" s="5" t="n">
-        <v>20.45</v>
+        <v>30.22</v>
       </c>
       <c r="D142" s="5" t="n">
-        <v>-0.17</v>
+        <v>-0.28</v>
       </c>
       <c r="E142" s="6" t="n">
         <v>0</v>
@@ -14291,10 +14291,10 @@
         <v>44229.44791666666</v>
       </c>
       <c r="C143" s="5" t="n">
-        <v>20.28</v>
+        <v>29.94</v>
       </c>
       <c r="D143" s="5" t="n">
-        <v>-0.17</v>
+        <v>-0.28</v>
       </c>
       <c r="E143" s="6" t="n">
         <v>0</v>
@@ -14323,10 +14323,10 @@
         <v>44229.45833333334</v>
       </c>
       <c r="C144" s="5" t="n">
-        <v>20.1</v>
+        <v>29.65</v>
       </c>
       <c r="D144" s="5" t="n">
-        <v>-0.17</v>
+        <v>-0.28</v>
       </c>
       <c r="E144" s="6" t="n">
         <v>0</v>
@@ -14355,10 +14355,10 @@
         <v>44229.46875</v>
       </c>
       <c r="C145" s="5" t="n">
-        <v>19.85</v>
+        <v>29.29</v>
       </c>
       <c r="D145" s="5" t="n">
-        <v>-0.25</v>
+        <v>-0.36</v>
       </c>
       <c r="E145" s="6" t="n">
         <v>0</v>
@@ -14387,7 +14387,7 @@
         <v>44229.47916666666</v>
       </c>
       <c r="C146" s="5" t="n">
-        <v>19.37</v>
+        <v>28.81</v>
       </c>
       <c r="D146" s="5" t="n">
         <v>-0.47</v>
@@ -14419,7 +14419,7 @@
         <v>44229.48958333334</v>
       </c>
       <c r="C147" s="5" t="n">
-        <v>18.9</v>
+        <v>28.34</v>
       </c>
       <c r="D147" s="5" t="n">
         <v>-0.47</v>
@@ -14451,10 +14451,10 @@
         <v>44229.5</v>
       </c>
       <c r="C148" s="5" t="n">
-        <v>18.68</v>
+        <v>27.99</v>
       </c>
       <c r="D148" s="5" t="n">
-        <v>-0.22</v>
+        <v>-0.34</v>
       </c>
       <c r="E148" s="6" t="n">
         <v>0</v>
@@ -14483,10 +14483,10 @@
         <v>44229.51041666666</v>
       </c>
       <c r="C149" s="5" t="n">
-        <v>18.42</v>
+        <v>27.68</v>
       </c>
       <c r="D149" s="5" t="n">
-        <v>-0.25</v>
+        <v>-0.3</v>
       </c>
       <c r="E149" s="6" t="n">
         <v>0</v>
@@ -14515,10 +14515,10 @@
         <v>44229.52083333334</v>
       </c>
       <c r="C150" s="5" t="n">
-        <v>18.16</v>
+        <v>27.38</v>
       </c>
       <c r="D150" s="5" t="n">
-        <v>-0.25</v>
+        <v>-0.3</v>
       </c>
       <c r="E150" s="6" t="n">
         <v>0</v>
@@ -14547,10 +14547,10 @@
         <v>44229.53125</v>
       </c>
       <c r="C151" s="5" t="n">
-        <v>17.9</v>
+        <v>27.08</v>
       </c>
       <c r="D151" s="5" t="n">
-        <v>-0.25</v>
+        <v>-0.29</v>
       </c>
       <c r="E151" s="6" t="n">
         <v>0</v>
@@ -14579,10 +14579,10 @@
         <v>44229.54166666666</v>
       </c>
       <c r="C152" s="5" t="n">
-        <v>17.65</v>
+        <v>26.79</v>
       </c>
       <c r="D152" s="5" t="n">
-        <v>-0.25</v>
+        <v>-0.29</v>
       </c>
       <c r="E152" s="6" t="n">
         <v>0</v>
@@ -14611,10 +14611,10 @@
         <v>44229.55208333334</v>
       </c>
       <c r="C153" s="5" t="n">
-        <v>17.43</v>
+        <v>26.44</v>
       </c>
       <c r="D153" s="5" t="n">
-        <v>-0.21</v>
+        <v>-0.34</v>
       </c>
       <c r="E153" s="6" t="n">
         <v>0</v>
@@ -14643,10 +14643,10 @@
         <v>44229.5625</v>
       </c>
       <c r="C154" s="5" t="n">
-        <v>17.21</v>
+        <v>26.09</v>
       </c>
       <c r="D154" s="5" t="n">
-        <v>-0.21</v>
+        <v>-0.34</v>
       </c>
       <c r="E154" s="6" t="n">
         <v>0</v>
@@ -14675,10 +14675,10 @@
         <v>44229.57291666666</v>
       </c>
       <c r="C155" s="5" t="n">
-        <v>16.99</v>
+        <v>25.74</v>
       </c>
       <c r="D155" s="5" t="n">
-        <v>-0.21</v>
+        <v>-0.34</v>
       </c>
       <c r="E155" s="6" t="n">
         <v>0</v>
@@ -14707,10 +14707,10 @@
         <v>44229.58333333334</v>
       </c>
       <c r="C156" s="5" t="n">
-        <v>16.77</v>
+        <v>25.48</v>
       </c>
       <c r="D156" s="5" t="n">
-        <v>-0.21</v>
+        <v>-0.25</v>
       </c>
       <c r="E156" s="6" t="n">
         <v>0</v>
@@ -14739,10 +14739,10 @@
         <v>44229.59375</v>
       </c>
       <c r="C157" s="5" t="n">
-        <v>16.63</v>
+        <v>25.3</v>
       </c>
       <c r="D157" s="5" t="n">
-        <v>-0.13</v>
+        <v>-0.17</v>
       </c>
       <c r="E157" s="6" t="n">
         <v>0</v>
@@ -14771,10 +14771,10 @@
         <v>44229.60416666666</v>
       </c>
       <c r="C158" s="5" t="n">
-        <v>16.49</v>
+        <v>25.12</v>
       </c>
       <c r="D158" s="5" t="n">
-        <v>-0.13</v>
+        <v>-0.17</v>
       </c>
       <c r="E158" s="6" t="n">
         <v>0</v>
@@ -14803,10 +14803,10 @@
         <v>44229.61458333334</v>
       </c>
       <c r="C159" s="5" t="n">
-        <v>16.35</v>
+        <v>24.94</v>
       </c>
       <c r="D159" s="5" t="n">
-        <v>-0.13</v>
+        <v>-0.17</v>
       </c>
       <c r="E159" s="6" t="n">
         <v>0</v>
@@ -14835,10 +14835,10 @@
         <v>44229.625</v>
       </c>
       <c r="C160" s="5" t="n">
-        <v>16.21</v>
+        <v>24.76</v>
       </c>
       <c r="D160" s="5" t="n">
-        <v>-0.13</v>
+        <v>-0.17</v>
       </c>
       <c r="E160" s="6" t="n">
         <v>0</v>
@@ -14867,10 +14867,10 @@
         <v>44229.63541666666</v>
       </c>
       <c r="C161" s="5" t="n">
-        <v>16.15</v>
+        <v>24.69</v>
       </c>
       <c r="D161" s="5" t="n">
-        <v>-0.05</v>
+        <v>-0.06</v>
       </c>
       <c r="E161" s="6" t="n">
         <v>0</v>
@@ -14899,10 +14899,10 @@
         <v>44229.64583333334</v>
       </c>
       <c r="C162" s="5" t="n">
-        <v>16.09</v>
+        <v>24.62</v>
       </c>
       <c r="D162" s="5" t="n">
-        <v>-0.05</v>
+        <v>-0.06</v>
       </c>
       <c r="E162" s="6" t="n">
         <v>0</v>
@@ -14931,10 +14931,10 @@
         <v>44229.65625</v>
       </c>
       <c r="C163" s="5" t="n">
-        <v>16.03</v>
+        <v>24.55</v>
       </c>
       <c r="D163" s="5" t="n">
-        <v>-0.05</v>
+        <v>-0.06</v>
       </c>
       <c r="E163" s="6" t="n">
         <v>0</v>
@@ -14963,10 +14963,10 @@
         <v>44229.66666666666</v>
       </c>
       <c r="C164" s="5" t="n">
-        <v>15.95</v>
+        <v>24.46</v>
       </c>
       <c r="D164" s="5" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.09</v>
       </c>
       <c r="E164" s="6" t="n">
         <v>0</v>
@@ -14995,7 +14995,7 @@
         <v>44229.67708333334</v>
       </c>
       <c r="C165" s="5" t="n">
-        <v>15.95</v>
+        <v>24.46</v>
       </c>
       <c r="D165" s="5" t="n">
         <v>0</v>
@@ -15027,7 +15027,7 @@
         <v>44229.6875</v>
       </c>
       <c r="C166" s="5" t="n">
-        <v>15.95</v>
+        <v>24.46</v>
       </c>
       <c r="D166" s="5" t="n">
         <v>0</v>
@@ -15059,7 +15059,7 @@
         <v>44229.69791666666</v>
       </c>
       <c r="C167" s="5" t="n">
-        <v>15.95</v>
+        <v>24.46</v>
       </c>
       <c r="D167" s="5" t="n">
         <v>0</v>
@@ -15091,7 +15091,7 @@
         <v>44229.70833333334</v>
       </c>
       <c r="C168" s="5" t="n">
-        <v>15.95</v>
+        <v>24.46</v>
       </c>
       <c r="D168" s="5" t="n">
         <v>0</v>
@@ -15123,7 +15123,7 @@
         <v>44229.71875</v>
       </c>
       <c r="C169" s="5" t="n">
-        <v>16.18</v>
+        <v>24.68</v>
       </c>
       <c r="D169" s="5" t="n">
         <v>0.22</v>
@@ -15155,7 +15155,7 @@
         <v>44229.72916666666</v>
       </c>
       <c r="C170" s="5" t="n">
-        <v>16.4</v>
+        <v>24.91</v>
       </c>
       <c r="D170" s="5" t="n">
         <v>0.22</v>
@@ -15187,7 +15187,7 @@
         <v>44229.73958333334</v>
       </c>
       <c r="C171" s="5" t="n">
-        <v>16.63</v>
+        <v>25.13</v>
       </c>
       <c r="D171" s="5" t="n">
         <v>0.22</v>
@@ -15219,7 +15219,7 @@
         <v>44229.75</v>
       </c>
       <c r="C172" s="5" t="n">
-        <v>16.85</v>
+        <v>25.36</v>
       </c>
       <c r="D172" s="5" t="n">
         <v>0.22</v>
@@ -15251,7 +15251,7 @@
         <v>44229.76041666666</v>
       </c>
       <c r="C173" s="5" t="n">
-        <v>17.08</v>
+        <v>25.58</v>
       </c>
       <c r="D173" s="5" t="n">
         <v>0.22</v>
@@ -15283,7 +15283,7 @@
         <v>44229.77083333334</v>
       </c>
       <c r="C174" s="5" t="n">
-        <v>17.3</v>
+        <v>25.81</v>
       </c>
       <c r="D174" s="5" t="n">
         <v>0.22</v>
@@ -15315,7 +15315,7 @@
         <v>44229.78125</v>
       </c>
       <c r="C175" s="5" t="n">
-        <v>17.53</v>
+        <v>26.03</v>
       </c>
       <c r="D175" s="5" t="n">
         <v>0.22</v>
@@ -15347,7 +15347,7 @@
         <v>44229.79166666666</v>
       </c>
       <c r="C176" s="5" t="n">
-        <v>17.75</v>
+        <v>26.26</v>
       </c>
       <c r="D176" s="5" t="n">
         <v>0.22</v>
@@ -15379,7 +15379,7 @@
         <v>44229.80208333334</v>
       </c>
       <c r="C177" s="5" t="n">
-        <v>18.05</v>
+        <v>26.56</v>
       </c>
       <c r="D177" s="5" t="n">
         <v>0.29</v>
@@ -15411,7 +15411,7 @@
         <v>44229.8125</v>
       </c>
       <c r="C178" s="5" t="n">
-        <v>18.35</v>
+        <v>26.86</v>
       </c>
       <c r="D178" s="5" t="n">
         <v>0.29</v>
@@ -15443,7 +15443,7 @@
         <v>44229.82291666666</v>
       </c>
       <c r="C179" s="5" t="n">
-        <v>18.65</v>
+        <v>27.16</v>
       </c>
       <c r="D179" s="5" t="n">
         <v>0.29</v>
@@ -15475,7 +15475,7 @@
         <v>44229.83333333334</v>
       </c>
       <c r="C180" s="5" t="n">
-        <v>18.95</v>
+        <v>27.46</v>
       </c>
       <c r="D180" s="5" t="n">
         <v>0.29</v>
@@ -15507,7 +15507,7 @@
         <v>44229.84375</v>
       </c>
       <c r="C181" s="5" t="n">
-        <v>19.25</v>
+        <v>27.76</v>
       </c>
       <c r="D181" s="5" t="n">
         <v>0.29</v>
@@ -15539,7 +15539,7 @@
         <v>44229.85416666666</v>
       </c>
       <c r="C182" s="5" t="n">
-        <v>19.55</v>
+        <v>28.06</v>
       </c>
       <c r="D182" s="5" t="n">
         <v>0.29</v>
@@ -15571,7 +15571,7 @@
         <v>44229.86458333334</v>
       </c>
       <c r="C183" s="5" t="n">
-        <v>19.85</v>
+        <v>28.36</v>
       </c>
       <c r="D183" s="5" t="n">
         <v>0.29</v>
@@ -15603,7 +15603,7 @@
         <v>44229.875</v>
       </c>
       <c r="C184" s="5" t="n">
-        <v>20.15</v>
+        <v>28.66</v>
       </c>
       <c r="D184" s="5" t="n">
         <v>0.29</v>
@@ -15635,7 +15635,7 @@
         <v>44229.88541666666</v>
       </c>
       <c r="C185" s="5" t="n">
-        <v>20.45</v>
+        <v>28.96</v>
       </c>
       <c r="D185" s="5" t="n">
         <v>0.29</v>
@@ -15667,7 +15667,7 @@
         <v>44229.89583333334</v>
       </c>
       <c r="C186" s="5" t="n">
-        <v>20.75</v>
+        <v>29.26</v>
       </c>
       <c r="D186" s="5" t="n">
         <v>0.29</v>
@@ -15699,7 +15699,7 @@
         <v>44229.90625</v>
       </c>
       <c r="C187" s="5" t="n">
-        <v>21.05</v>
+        <v>29.56</v>
       </c>
       <c r="D187" s="5" t="n">
         <v>0.29</v>
@@ -15731,7 +15731,7 @@
         <v>44229.91666666666</v>
       </c>
       <c r="C188" s="5" t="n">
-        <v>21.15</v>
+        <v>29.66</v>
       </c>
       <c r="D188" s="5" t="n">
         <v>0.09</v>
@@ -15763,7 +15763,7 @@
         <v>44229.92708333334</v>
       </c>
       <c r="C189" s="5" t="n">
-        <v>21.23</v>
+        <v>29.73</v>
       </c>
       <c r="D189" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -15795,7 +15795,7 @@
         <v>44229.9375</v>
       </c>
       <c r="C190" s="5" t="n">
-        <v>21.3</v>
+        <v>29.81</v>
       </c>
       <c r="D190" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -15827,7 +15827,7 @@
         <v>44229.94791666666</v>
       </c>
       <c r="C191" s="5" t="n">
-        <v>21.38</v>
+        <v>29.88</v>
       </c>
       <c r="D191" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -15859,7 +15859,7 @@
         <v>44229.95833333334</v>
       </c>
       <c r="C192" s="5" t="n">
-        <v>21.45</v>
+        <v>29.96</v>
       </c>
       <c r="D192" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -15891,7 +15891,7 @@
         <v>44229.96875</v>
       </c>
       <c r="C193" s="5" t="n">
-        <v>21.5</v>
+        <v>30.01</v>
       </c>
       <c r="D193" s="5" t="n">
         <v>0.04</v>
@@ -15923,7 +15923,7 @@
         <v>44229.97916666666</v>
       </c>
       <c r="C194" s="5" t="n">
-        <v>21.55</v>
+        <v>30.06</v>
       </c>
       <c r="D194" s="5" t="n">
         <v>0.04</v>
@@ -15955,7 +15955,7 @@
         <v>44229.98958333334</v>
       </c>
       <c r="C195" s="5" t="n">
-        <v>21.6</v>
+        <v>30.11</v>
       </c>
       <c r="D195" s="5" t="n">
         <v>0.04</v>
@@ -15987,7 +15987,7 @@
         <v>44230</v>
       </c>
       <c r="C196" s="5" t="n">
-        <v>21.65</v>
+        <v>30.16</v>
       </c>
       <c r="D196" s="5" t="n">
         <v>0.04</v>
@@ -16019,7 +16019,7 @@
         <v>44230.01041666666</v>
       </c>
       <c r="C197" s="5" t="n">
-        <v>21.68</v>
+        <v>30.18</v>
       </c>
       <c r="D197" s="5" t="n">
         <v>0.02</v>
@@ -16051,7 +16051,7 @@
         <v>44230.02083333334</v>
       </c>
       <c r="C198" s="5" t="n">
-        <v>21.7</v>
+        <v>30.21</v>
       </c>
       <c r="D198" s="5" t="n">
         <v>0.02</v>
@@ -16083,7 +16083,7 @@
         <v>44230.03125</v>
       </c>
       <c r="C199" s="5" t="n">
-        <v>21.73</v>
+        <v>30.23</v>
       </c>
       <c r="D199" s="5" t="n">
         <v>0.02</v>
@@ -16115,7 +16115,7 @@
         <v>44230.04166666666</v>
       </c>
       <c r="C200" s="5" t="n">
-        <v>21.75</v>
+        <v>30.26</v>
       </c>
       <c r="D200" s="5" t="n">
         <v>0.02</v>
@@ -16147,7 +16147,7 @@
         <v>44230.05208333334</v>
       </c>
       <c r="C201" s="5" t="n">
-        <v>21.78</v>
+        <v>30.28</v>
       </c>
       <c r="D201" s="5" t="n">
         <v>0.02</v>
@@ -16179,7 +16179,7 @@
         <v>44230.0625</v>
       </c>
       <c r="C202" s="5" t="n">
-        <v>21.8</v>
+        <v>30.31</v>
       </c>
       <c r="D202" s="5" t="n">
         <v>0.02</v>
@@ -16211,7 +16211,7 @@
         <v>44230.07291666666</v>
       </c>
       <c r="C203" s="5" t="n">
-        <v>21.83</v>
+        <v>30.33</v>
       </c>
       <c r="D203" s="5" t="n">
         <v>0.02</v>
@@ -16243,7 +16243,7 @@
         <v>44230.08333333334</v>
       </c>
       <c r="C204" s="5" t="n">
-        <v>21.85</v>
+        <v>30.36</v>
       </c>
       <c r="D204" s="5" t="n">
         <v>0.02</v>
@@ -16275,7 +16275,7 @@
         <v>44230.09375</v>
       </c>
       <c r="C205" s="5" t="n">
-        <v>21.88</v>
+        <v>30.38</v>
       </c>
       <c r="D205" s="5" t="n">
         <v>0.02</v>
@@ -16307,7 +16307,7 @@
         <v>44230.10416666666</v>
       </c>
       <c r="C206" s="5" t="n">
-        <v>21.9</v>
+        <v>30.41</v>
       </c>
       <c r="D206" s="5" t="n">
         <v>0.02</v>
@@ -16339,7 +16339,7 @@
         <v>44230.11458333334</v>
       </c>
       <c r="C207" s="5" t="n">
-        <v>21.93</v>
+        <v>30.43</v>
       </c>
       <c r="D207" s="5" t="n">
         <v>0.02</v>
@@ -16371,7 +16371,7 @@
         <v>44230.125</v>
       </c>
       <c r="C208" s="5" t="n">
-        <v>21.95</v>
+        <v>30.46</v>
       </c>
       <c r="D208" s="5" t="n">
         <v>0.02</v>
@@ -16403,7 +16403,7 @@
         <v>44230.13541666666</v>
       </c>
       <c r="C209" s="5" t="n">
-        <v>21.98</v>
+        <v>30.48</v>
       </c>
       <c r="D209" s="5" t="n">
         <v>0.02</v>
@@ -16435,7 +16435,7 @@
         <v>44230.14583333334</v>
       </c>
       <c r="C210" s="5" t="n">
-        <v>22</v>
+        <v>30.51</v>
       </c>
       <c r="D210" s="5" t="n">
         <v>0.02</v>
@@ -16467,7 +16467,7 @@
         <v>44230.15625</v>
       </c>
       <c r="C211" s="5" t="n">
-        <v>22.03</v>
+        <v>30.53</v>
       </c>
       <c r="D211" s="5" t="n">
         <v>0.02</v>
@@ -16499,7 +16499,7 @@
         <v>44230.16666666666</v>
       </c>
       <c r="C212" s="5" t="n">
-        <v>22.05</v>
+        <v>30.56</v>
       </c>
       <c r="D212" s="5" t="n">
         <v>0.02</v>
@@ -16531,7 +16531,7 @@
         <v>44230.17708333334</v>
       </c>
       <c r="C213" s="5" t="n">
-        <v>22.08</v>
+        <v>30.58</v>
       </c>
       <c r="D213" s="5" t="n">
         <v>0.02</v>
@@ -16563,7 +16563,7 @@
         <v>44230.1875</v>
       </c>
       <c r="C214" s="5" t="n">
-        <v>22.1</v>
+        <v>30.61</v>
       </c>
       <c r="D214" s="5" t="n">
         <v>0.02</v>
@@ -16595,7 +16595,7 @@
         <v>44230.19791666666</v>
       </c>
       <c r="C215" s="5" t="n">
-        <v>22.13</v>
+        <v>30.63</v>
       </c>
       <c r="D215" s="5" t="n">
         <v>0.02</v>
@@ -16627,7 +16627,7 @@
         <v>44230.20833333334</v>
       </c>
       <c r="C216" s="5" t="n">
-        <v>22.15</v>
+        <v>30.66</v>
       </c>
       <c r="D216" s="5" t="n">
         <v>0.02</v>
@@ -16659,7 +16659,7 @@
         <v>44230.21875</v>
       </c>
       <c r="C217" s="5" t="n">
-        <v>22.23</v>
+        <v>30.73</v>
       </c>
       <c r="D217" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -16691,7 +16691,7 @@
         <v>44230.22916666666</v>
       </c>
       <c r="C218" s="5" t="n">
-        <v>22.3</v>
+        <v>30.81</v>
       </c>
       <c r="D218" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -16723,7 +16723,7 @@
         <v>44230.23958333334</v>
       </c>
       <c r="C219" s="5" t="n">
-        <v>22.38</v>
+        <v>30.88</v>
       </c>
       <c r="D219" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -16755,7 +16755,7 @@
         <v>44230.25</v>
       </c>
       <c r="C220" s="5" t="n">
-        <v>22.6</v>
+        <v>31.11</v>
       </c>
       <c r="D220" s="5" t="n">
         <v>0.22</v>
@@ -16787,7 +16787,7 @@
         <v>44230.26041666666</v>
       </c>
       <c r="C221" s="5" t="n">
-        <v>22.9</v>
+        <v>31.41</v>
       </c>
       <c r="D221" s="5" t="n">
         <v>0.29</v>
@@ -16819,7 +16819,7 @@
         <v>44230.27083333334</v>
       </c>
       <c r="C222" s="5" t="n">
-        <v>23.2</v>
+        <v>31.71</v>
       </c>
       <c r="D222" s="5" t="n">
         <v>0.29</v>
@@ -16851,7 +16851,7 @@
         <v>44230.28125</v>
       </c>
       <c r="C223" s="5" t="n">
-        <v>23.5</v>
+        <v>32.01</v>
       </c>
       <c r="D223" s="5" t="n">
         <v>0.29</v>
@@ -16883,7 +16883,7 @@
         <v>44230.29166666666</v>
       </c>
       <c r="C224" s="5" t="n">
-        <v>23.8</v>
+        <v>32.31</v>
       </c>
       <c r="D224" s="5" t="n">
         <v>0.29</v>
@@ -16915,7 +16915,7 @@
         <v>44230.30208333334</v>
       </c>
       <c r="C225" s="5" t="n">
-        <v>24.1</v>
+        <v>32.61</v>
       </c>
       <c r="D225" s="5" t="n">
         <v>0.29</v>
@@ -16947,7 +16947,7 @@
         <v>44230.3125</v>
       </c>
       <c r="C226" s="5" t="n">
-        <v>24.4</v>
+        <v>32.91</v>
       </c>
       <c r="D226" s="5" t="n">
         <v>0.29</v>
@@ -16979,7 +16979,7 @@
         <v>44230.32291666666</v>
       </c>
       <c r="C227" s="5" t="n">
-        <v>24.7</v>
+        <v>33.21</v>
       </c>
       <c r="D227" s="5" t="n">
         <v>0.29</v>
@@ -17011,7 +17011,7 @@
         <v>44230.33333333334</v>
       </c>
       <c r="C228" s="5" t="n">
-        <v>25</v>
+        <v>33.51</v>
       </c>
       <c r="D228" s="5" t="n">
         <v>0.29</v>
@@ -17043,7 +17043,7 @@
         <v>44230.34375</v>
       </c>
       <c r="C229" s="5" t="n">
-        <v>25</v>
+        <v>33.51</v>
       </c>
       <c r="D229" s="5" t="n">
         <v>0</v>
@@ -17075,7 +17075,7 @@
         <v>44230.35416666666</v>
       </c>
       <c r="C230" s="5" t="n">
-        <v>25</v>
+        <v>33.51</v>
       </c>
       <c r="D230" s="5" t="n">
         <v>0</v>
@@ -17107,7 +17107,7 @@
         <v>44230.36458333334</v>
       </c>
       <c r="C231" s="5" t="n">
-        <v>25</v>
+        <v>33.51</v>
       </c>
       <c r="D231" s="5" t="n">
         <v>0</v>
@@ -17139,7 +17139,7 @@
         <v>44230.375</v>
       </c>
       <c r="C232" s="5" t="n">
-        <v>25</v>
+        <v>33.51</v>
       </c>
       <c r="D232" s="5" t="n">
         <v>0</v>
@@ -17171,10 +17171,10 @@
         <v>44230.38541666666</v>
       </c>
       <c r="C233" s="5" t="n">
-        <v>24.93</v>
+        <v>33.41</v>
       </c>
       <c r="D233" s="5" t="n">
-        <v>-0.06</v>
+        <v>-0.09</v>
       </c>
       <c r="E233" s="6" t="n">
         <v>0</v>
@@ -17203,7 +17203,7 @@
         <v>44230.39583333334</v>
       </c>
       <c r="C234" s="5" t="n">
-        <v>24.84</v>
+        <v>33.32</v>
       </c>
       <c r="D234" s="5" t="n">
         <v>-0.09</v>
@@ -17235,10 +17235,10 @@
         <v>44230.40625</v>
       </c>
       <c r="C235" s="5" t="n">
-        <v>24.77</v>
+        <v>33.22</v>
       </c>
       <c r="D235" s="5" t="n">
-        <v>-0.06</v>
+        <v>-0.09</v>
       </c>
       <c r="E235" s="6" t="n">
         <v>0</v>
@@ -17267,7 +17267,7 @@
         <v>44230.41666666666</v>
       </c>
       <c r="C236" s="5" t="n">
-        <v>24.68</v>
+        <v>33.13</v>
       </c>
       <c r="D236" s="5" t="n">
         <v>-0.09</v>
@@ -17299,10 +17299,10 @@
         <v>44230.42708333334</v>
       </c>
       <c r="C237" s="5" t="n">
-        <v>24.51</v>
+        <v>32.84</v>
       </c>
       <c r="D237" s="5" t="n">
-        <v>-0.16</v>
+        <v>-0.28</v>
       </c>
       <c r="E237" s="6" t="n">
         <v>0</v>
@@ -17331,10 +17331,10 @@
         <v>44230.4375</v>
       </c>
       <c r="C238" s="5" t="n">
-        <v>24.34</v>
+        <v>32.56</v>
       </c>
       <c r="D238" s="5" t="n">
-        <v>-0.17</v>
+        <v>-0.28</v>
       </c>
       <c r="E238" s="6" t="n">
         <v>0</v>
@@ -17363,10 +17363,10 @@
         <v>44230.44791666666</v>
       </c>
       <c r="C239" s="5" t="n">
-        <v>24.16</v>
+        <v>32.27</v>
       </c>
       <c r="D239" s="5" t="n">
-        <v>-0.17</v>
+        <v>-0.28</v>
       </c>
       <c r="E239" s="6" t="n">
         <v>0</v>
@@ -17395,10 +17395,10 @@
         <v>44230.45833333334</v>
       </c>
       <c r="C240" s="5" t="n">
-        <v>23.99</v>
+        <v>31.99</v>
       </c>
       <c r="D240" s="5" t="n">
-        <v>-0.17</v>
+        <v>-0.28</v>
       </c>
       <c r="E240" s="6" t="n">
         <v>0</v>
@@ -17427,10 +17427,10 @@
         <v>44230.46875</v>
       </c>
       <c r="C241" s="5" t="n">
-        <v>23.73</v>
+        <v>31.62</v>
       </c>
       <c r="D241" s="5" t="n">
-        <v>-0.25</v>
+        <v>-0.36</v>
       </c>
       <c r="E241" s="6" t="n">
         <v>0</v>
@@ -17459,7 +17459,7 @@
         <v>44230.47916666666</v>
       </c>
       <c r="C242" s="5" t="n">
-        <v>23.26</v>
+        <v>31.15</v>
       </c>
       <c r="D242" s="5" t="n">
         <v>-0.47</v>
@@ -17491,7 +17491,7 @@
         <v>44230.48958333334</v>
       </c>
       <c r="C243" s="5" t="n">
-        <v>22.78</v>
+        <v>30.67</v>
       </c>
       <c r="D243" s="5" t="n">
         <v>-0.47</v>
@@ -17523,10 +17523,10 @@
         <v>44230.5</v>
       </c>
       <c r="C244" s="5" t="n">
-        <v>22.56</v>
+        <v>30.32</v>
       </c>
       <c r="D244" s="5" t="n">
-        <v>-0.22</v>
+        <v>-0.34</v>
       </c>
       <c r="E244" s="6" t="n">
         <v>0</v>
@@ -17555,10 +17555,10 @@
         <v>44230.51041666666</v>
       </c>
       <c r="C245" s="5" t="n">
-        <v>22.3</v>
+        <v>30.02</v>
       </c>
       <c r="D245" s="5" t="n">
-        <v>-0.25</v>
+        <v>-0.3</v>
       </c>
       <c r="E245" s="6" t="n">
         <v>0</v>
@@ -17587,10 +17587,10 @@
         <v>44230.52083333334</v>
       </c>
       <c r="C246" s="5" t="n">
-        <v>22.04</v>
+        <v>29.71</v>
       </c>
       <c r="D246" s="5" t="n">
-        <v>-0.25</v>
+        <v>-0.3</v>
       </c>
       <c r="E246" s="6" t="n">
         <v>0</v>
@@ -17619,10 +17619,10 @@
         <v>44230.53125</v>
       </c>
       <c r="C247" s="5" t="n">
-        <v>21.79</v>
+        <v>29.42</v>
       </c>
       <c r="D247" s="5" t="n">
-        <v>-0.25</v>
+        <v>-0.29</v>
       </c>
       <c r="E247" s="6" t="n">
         <v>0</v>
@@ -17651,10 +17651,10 @@
         <v>44230.54166666666</v>
       </c>
       <c r="C248" s="5" t="n">
-        <v>21.53</v>
+        <v>29.13</v>
       </c>
       <c r="D248" s="5" t="n">
-        <v>-0.25</v>
+        <v>-0.29</v>
       </c>
       <c r="E248" s="6" t="n">
         <v>0</v>
@@ -17683,10 +17683,10 @@
         <v>44230.55208333334</v>
       </c>
       <c r="C249" s="5" t="n">
-        <v>21.31</v>
+        <v>28.78</v>
       </c>
       <c r="D249" s="5" t="n">
-        <v>-0.21</v>
+        <v>-0.34</v>
       </c>
       <c r="E249" s="6" t="n">
         <v>0</v>
@@ -17715,10 +17715,10 @@
         <v>44230.5625</v>
       </c>
       <c r="C250" s="5" t="n">
-        <v>21.09</v>
+        <v>28.43</v>
       </c>
       <c r="D250" s="5" t="n">
-        <v>-0.21</v>
+        <v>-0.34</v>
       </c>
       <c r="E250" s="6" t="n">
         <v>0</v>
@@ -17747,10 +17747,10 @@
         <v>44230.57291666666</v>
       </c>
       <c r="C251" s="5" t="n">
-        <v>20.87</v>
+        <v>28.08</v>
       </c>
       <c r="D251" s="5" t="n">
-        <v>-0.21</v>
+        <v>-0.34</v>
       </c>
       <c r="E251" s="6" t="n">
         <v>0</v>
@@ -17779,10 +17779,10 @@
         <v>44230.58333333334</v>
       </c>
       <c r="C252" s="5" t="n">
-        <v>20.65</v>
+        <v>27.82</v>
       </c>
       <c r="D252" s="5" t="n">
-        <v>-0.21</v>
+        <v>-0.25</v>
       </c>
       <c r="E252" s="6" t="n">
         <v>0</v>
@@ -17811,10 +17811,10 @@
         <v>44230.59375</v>
       </c>
       <c r="C253" s="5" t="n">
-        <v>20.51</v>
+        <v>27.64</v>
       </c>
       <c r="D253" s="5" t="n">
-        <v>-0.13</v>
+        <v>-0.17</v>
       </c>
       <c r="E253" s="6" t="n">
         <v>0</v>
@@ -17843,10 +17843,10 @@
         <v>44230.60416666666</v>
       </c>
       <c r="C254" s="5" t="n">
-        <v>20.37</v>
+        <v>27.46</v>
       </c>
       <c r="D254" s="5" t="n">
-        <v>-0.13</v>
+        <v>-0.17</v>
       </c>
       <c r="E254" s="6" t="n">
         <v>0</v>
@@ -17875,10 +17875,10 @@
         <v>44230.61458333334</v>
       </c>
       <c r="C255" s="5" t="n">
-        <v>20.23</v>
+        <v>27.28</v>
       </c>
       <c r="D255" s="5" t="n">
-        <v>-0.13</v>
+        <v>-0.17</v>
       </c>
       <c r="E255" s="6" t="n">
         <v>0</v>
@@ -17907,10 +17907,10 @@
         <v>44230.625</v>
       </c>
       <c r="C256" s="5" t="n">
-        <v>20.09</v>
+        <v>27.1</v>
       </c>
       <c r="D256" s="5" t="n">
-        <v>-0.13</v>
+        <v>-0.17</v>
       </c>
       <c r="E256" s="6" t="n">
         <v>0</v>
@@ -17939,10 +17939,10 @@
         <v>44230.63541666666</v>
       </c>
       <c r="C257" s="5" t="n">
-        <v>20.03</v>
+        <v>27.03</v>
       </c>
       <c r="D257" s="5" t="n">
-        <v>-0.05</v>
+        <v>-0.06</v>
       </c>
       <c r="E257" s="6" t="n">
         <v>0</v>
@@ -17971,10 +17971,10 @@
         <v>44230.64583333334</v>
       </c>
       <c r="C258" s="5" t="n">
-        <v>19.97</v>
+        <v>26.96</v>
       </c>
       <c r="D258" s="5" t="n">
-        <v>-0.05</v>
+        <v>-0.06</v>
       </c>
       <c r="E258" s="6" t="n">
         <v>0</v>
@@ -18003,10 +18003,10 @@
         <v>44230.65625</v>
       </c>
       <c r="C259" s="5" t="n">
-        <v>19.91</v>
+        <v>26.89</v>
       </c>
       <c r="D259" s="5" t="n">
-        <v>-0.05</v>
+        <v>-0.06</v>
       </c>
       <c r="E259" s="6" t="n">
         <v>0</v>
@@ -18035,10 +18035,10 @@
         <v>44230.66666666666</v>
       </c>
       <c r="C260" s="5" t="n">
-        <v>19.83</v>
+        <v>26.8</v>
       </c>
       <c r="D260" s="5" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.09</v>
       </c>
       <c r="E260" s="6" t="n">
         <v>0</v>
@@ -18067,7 +18067,7 @@
         <v>44230.67708333334</v>
       </c>
       <c r="C261" s="5" t="n">
-        <v>19.83</v>
+        <v>26.8</v>
       </c>
       <c r="D261" s="5" t="n">
         <v>0</v>
@@ -18099,7 +18099,7 @@
         <v>44230.6875</v>
       </c>
       <c r="C262" s="5" t="n">
-        <v>19.83</v>
+        <v>26.8</v>
       </c>
       <c r="D262" s="5" t="n">
         <v>0</v>
@@ -18131,7 +18131,7 @@
         <v>44230.69791666666</v>
       </c>
       <c r="C263" s="5" t="n">
-        <v>19.83</v>
+        <v>26.8</v>
       </c>
       <c r="D263" s="5" t="n">
         <v>0</v>
@@ -18163,7 +18163,7 @@
         <v>44230.70833333334</v>
       </c>
       <c r="C264" s="5" t="n">
-        <v>19.83</v>
+        <v>26.8</v>
       </c>
       <c r="D264" s="5" t="n">
         <v>0</v>
@@ -18195,7 +18195,7 @@
         <v>44230.71875</v>
       </c>
       <c r="C265" s="5" t="n">
-        <v>20.06</v>
+        <v>27.02</v>
       </c>
       <c r="D265" s="5" t="n">
         <v>0.22</v>
@@ -18227,7 +18227,7 @@
         <v>44230.72916666666</v>
       </c>
       <c r="C266" s="5" t="n">
-        <v>20.28</v>
+        <v>27.25</v>
       </c>
       <c r="D266" s="5" t="n">
         <v>0.22</v>
@@ -18259,7 +18259,7 @@
         <v>44230.73958333334</v>
       </c>
       <c r="C267" s="5" t="n">
-        <v>20.51</v>
+        <v>27.47</v>
       </c>
       <c r="D267" s="5" t="n">
         <v>0.22</v>
@@ -18291,7 +18291,7 @@
         <v>44230.75</v>
       </c>
       <c r="C268" s="5" t="n">
-        <v>20.73</v>
+        <v>27.7</v>
       </c>
       <c r="D268" s="5" t="n">
         <v>0.22</v>
@@ -18323,7 +18323,7 @@
         <v>44230.76041666666</v>
       </c>
       <c r="C269" s="5" t="n">
-        <v>20.96</v>
+        <v>27.92</v>
       </c>
       <c r="D269" s="5" t="n">
         <v>0.22</v>
@@ -18355,7 +18355,7 @@
         <v>44230.77083333334</v>
       </c>
       <c r="C270" s="5" t="n">
-        <v>21.18</v>
+        <v>28.15</v>
       </c>
       <c r="D270" s="5" t="n">
         <v>0.22</v>
@@ -18387,7 +18387,7 @@
         <v>44230.78125</v>
       </c>
       <c r="C271" s="5" t="n">
-        <v>21.41</v>
+        <v>28.37</v>
       </c>
       <c r="D271" s="5" t="n">
         <v>0.22</v>
@@ -18419,7 +18419,7 @@
         <v>44230.79166666666</v>
       </c>
       <c r="C272" s="5" t="n">
-        <v>21.63</v>
+        <v>28.6</v>
       </c>
       <c r="D272" s="5" t="n">
         <v>0.22</v>
@@ -18451,7 +18451,7 @@
         <v>44230.80208333334</v>
       </c>
       <c r="C273" s="5" t="n">
-        <v>21.93</v>
+        <v>28.9</v>
       </c>
       <c r="D273" s="5" t="n">
         <v>0.29</v>
@@ -18483,7 +18483,7 @@
         <v>44230.8125</v>
       </c>
       <c r="C274" s="5" t="n">
-        <v>22.23</v>
+        <v>29.2</v>
       </c>
       <c r="D274" s="5" t="n">
         <v>0.29</v>
@@ -18515,7 +18515,7 @@
         <v>44230.82291666666</v>
       </c>
       <c r="C275" s="5" t="n">
-        <v>22.53</v>
+        <v>29.5</v>
       </c>
       <c r="D275" s="5" t="n">
         <v>0.29</v>
@@ -18547,7 +18547,7 @@
         <v>44230.83333333334</v>
       </c>
       <c r="C276" s="5" t="n">
-        <v>22.83</v>
+        <v>29.8</v>
       </c>
       <c r="D276" s="5" t="n">
         <v>0.29</v>
@@ -18579,7 +18579,7 @@
         <v>44230.84375</v>
       </c>
       <c r="C277" s="5" t="n">
-        <v>23.13</v>
+        <v>30.1</v>
       </c>
       <c r="D277" s="5" t="n">
         <v>0.29</v>
@@ -18611,7 +18611,7 @@
         <v>44230.85416666666</v>
       </c>
       <c r="C278" s="5" t="n">
-        <v>23.43</v>
+        <v>30.4</v>
       </c>
       <c r="D278" s="5" t="n">
         <v>0.29</v>
@@ -18643,7 +18643,7 @@
         <v>44230.86458333334</v>
       </c>
       <c r="C279" s="5" t="n">
-        <v>23.73</v>
+        <v>30.7</v>
       </c>
       <c r="D279" s="5" t="n">
         <v>0.29</v>
@@ -18675,7 +18675,7 @@
         <v>44230.875</v>
       </c>
       <c r="C280" s="5" t="n">
-        <v>24.03</v>
+        <v>31</v>
       </c>
       <c r="D280" s="5" t="n">
         <v>0.29</v>
@@ -18707,7 +18707,7 @@
         <v>44230.88541666666</v>
       </c>
       <c r="C281" s="5" t="n">
-        <v>24.33</v>
+        <v>31.3</v>
       </c>
       <c r="D281" s="5" t="n">
         <v>0.29</v>
@@ -18739,7 +18739,7 @@
         <v>44230.89583333334</v>
       </c>
       <c r="C282" s="5" t="n">
-        <v>24.63</v>
+        <v>31.6</v>
       </c>
       <c r="D282" s="5" t="n">
         <v>0.29</v>
@@ -18771,7 +18771,7 @@
         <v>44230.90625</v>
       </c>
       <c r="C283" s="5" t="n">
-        <v>24.93</v>
+        <v>31.9</v>
       </c>
       <c r="D283" s="5" t="n">
         <v>0.29</v>
@@ -18803,7 +18803,7 @@
         <v>44230.91666666666</v>
       </c>
       <c r="C284" s="5" t="n">
-        <v>25.03</v>
+        <v>32</v>
       </c>
       <c r="D284" s="5" t="n">
         <v>0.09</v>
@@ -18835,7 +18835,7 @@
         <v>44230.92708333334</v>
       </c>
       <c r="C285" s="5" t="n">
-        <v>25.11</v>
+        <v>32.07</v>
       </c>
       <c r="D285" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -18867,7 +18867,7 @@
         <v>44230.9375</v>
       </c>
       <c r="C286" s="5" t="n">
-        <v>25.18</v>
+        <v>32.15</v>
       </c>
       <c r="D286" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -18899,7 +18899,7 @@
         <v>44230.94791666666</v>
       </c>
       <c r="C287" s="5" t="n">
-        <v>25.26</v>
+        <v>32.22</v>
       </c>
       <c r="D287" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -18931,7 +18931,7 @@
         <v>44230.95833333334</v>
       </c>
       <c r="C288" s="5" t="n">
-        <v>25.33</v>
+        <v>32.3</v>
       </c>
       <c r="D288" s="5" t="n">
         <v>0.07000000000000001</v>
@@ -18963,7 +18963,7 @@
         <v>44230.96875</v>
       </c>
       <c r="C289" s="5" t="n">
-        <v>25.38</v>
+        <v>32.35</v>
       </c>
       <c r="D289" s="5" t="n">
         <v>0.04</v>
@@ -18995,7 +18995,7 @@
         <v>44230.97916666666</v>
       </c>
       <c r="C290" s="5" t="n">
-        <v>25.43</v>
+        <v>32.4</v>
       </c>
       <c r="D290" s="5" t="n">
         <v>0.04</v>
@@ -19027,7 +19027,7 @@
         <v>44230.98958333334</v>
       </c>
       <c r="C291" s="5" t="n">
-        <v>25.48</v>
+        <v>32.45</v>
       </c>
       <c r="D291" s="5" t="n">
         <v>0.04</v>
